--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_15_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_15_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3469231.594131765</v>
+        <v>-3470029.961569582</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681862</v>
+        <v>590120.965168186</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>198.0379245617693</v>
+        <v>261.6938579839128</v>
       </c>
       <c r="C11" t="n">
         <v>244.9625436714604</v>
@@ -1376,19 +1376,19 @@
         <v>234.5821807471162</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>261.0954837478052</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>292.306137003043</v>
+        <v>77.85090910099404</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.7336715177292</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.92019570772393</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.85443390360346</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>98.63966577724246</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.4131254575978</v>
       </c>
       <c r="V11" t="n">
-        <v>206.5106695150371</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.5075649930724</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.8390471236872</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.34957360286263</v>
+        <v>43.34957360286262</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>49.00303191991878</v>
       </c>
       <c r="D12" t="n">
-        <v>24.08987156716337</v>
+        <v>24.08987156716336</v>
       </c>
       <c r="E12" t="n">
-        <v>34.01088169969164</v>
+        <v>34.01088169969162</v>
       </c>
       <c r="F12" t="n">
-        <v>21.4836800760671</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>96.1721197224602</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I12" t="n">
         <v>76.8123850008196</v>
@@ -1497,25 +1497,25 @@
         <v>77.21879642024859</v>
       </c>
       <c r="S12" t="n">
-        <v>41.71077449716838</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T12" t="n">
         <v>197.2479873695406</v>
       </c>
       <c r="U12" t="n">
-        <v>102.6161069225254</v>
+        <v>199.3475431581384</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>109.8861790321729</v>
       </c>
       <c r="W12" t="n">
         <v>127.9667947425178</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.43907760099606</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>81.64859941110382</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.06113948320161</v>
+        <v>58.0611394832016</v>
       </c>
       <c r="C13" t="n">
-        <v>45.31400092372014</v>
+        <v>45.31400092372013</v>
       </c>
       <c r="D13" t="n">
-        <v>26.98301450703717</v>
+        <v>26.98301450703715</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95207216571698</v>
+        <v>20.82378795359815</v>
       </c>
       <c r="F13" t="n">
-        <v>24.13646940232231</v>
+        <v>24.13646940232229</v>
       </c>
       <c r="G13" t="n">
-        <v>45.63105716341559</v>
+        <v>45.63105716341558</v>
       </c>
       <c r="H13" t="n">
-        <v>37.51344541500141</v>
+        <v>37.5134454150014</v>
       </c>
       <c r="I13" t="n">
-        <v>24.6394398493068</v>
+        <v>24.63943984930679</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>40.75808757999057</v>
       </c>
       <c r="S13" t="n">
-        <v>96.22237133206663</v>
+        <v>96.22237133206661</v>
       </c>
       <c r="T13" t="n">
-        <v>101.1733526189172</v>
+        <v>105.3016368310361</v>
       </c>
       <c r="U13" t="n">
         <v>164.0168467603523</v>
@@ -1591,10 +1591,10 @@
         <v>164.0700248799333</v>
       </c>
       <c r="X13" t="n">
-        <v>104.1178079248271</v>
+        <v>104.117807924827</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.72612186028603</v>
+        <v>96.72612186028601</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.0954837478052</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.2713114730586</v>
       </c>
       <c r="G14" t="n">
-        <v>80.70298740955435</v>
+        <v>292.306137003043</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.92019570772396</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.85443390360348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>98.63966577724248</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.4131254575978</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.5106695150372</v>
+        <v>39.87571053992497</v>
       </c>
       <c r="W14" t="n">
-        <v>228.5075649930724</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>248.8390471236872</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.6645197437537</v>
+        <v>264.6645197437536</v>
       </c>
     </row>
     <row r="15">
@@ -1686,19 +1686,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>49.00303191991881</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>148.4724483235201</v>
       </c>
       <c r="F15" t="n">
-        <v>21.48368007606712</v>
+        <v>21.48368007606709</v>
       </c>
       <c r="G15" t="n">
-        <v>13.71918251221738</v>
+        <v>13.71918251221735</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.7333265046506</v>
+        <v>41.71077449716837</v>
       </c>
       <c r="T15" t="n">
-        <v>197.2479873695406</v>
+        <v>75.22543536205842</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6386589300076</v>
+        <v>102.6161069225254</v>
       </c>
       <c r="V15" t="n">
-        <v>109.8861790321729</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>127.9667947425179</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>119.6818478045762</v>
+        <v>82.43907760099606</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.64859941110385</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.06113948320163</v>
+        <v>58.0611394832016</v>
       </c>
       <c r="C16" t="n">
-        <v>45.31400092372016</v>
+        <v>45.31400092372013</v>
       </c>
       <c r="D16" t="n">
-        <v>26.98301450703718</v>
+        <v>26.98301450703715</v>
       </c>
       <c r="E16" t="n">
-        <v>20.82378795359736</v>
+        <v>24.95207216571697</v>
       </c>
       <c r="F16" t="n">
-        <v>24.13646940232232</v>
+        <v>24.13646940232229</v>
       </c>
       <c r="G16" t="n">
-        <v>45.63105716341559</v>
+        <v>41.50277295129656</v>
       </c>
       <c r="H16" t="n">
-        <v>37.51344541500143</v>
+        <v>37.5134454150014</v>
       </c>
       <c r="I16" t="n">
-        <v>24.63943984930682</v>
+        <v>24.63943984930679</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.75808757999059</v>
+        <v>40.75808757999057</v>
       </c>
       <c r="S16" t="n">
-        <v>96.22237133206664</v>
+        <v>96.22237133206661</v>
       </c>
       <c r="T16" t="n">
         <v>105.3016368310361</v>
       </c>
       <c r="U16" t="n">
-        <v>164.0168467603524</v>
+        <v>164.0168467603523</v>
       </c>
       <c r="V16" t="n">
-        <v>130.913799059457</v>
+        <v>130.9137990594569</v>
       </c>
       <c r="W16" t="n">
-        <v>164.0700248799334</v>
+        <v>164.0700248799333</v>
       </c>
       <c r="X16" t="n">
-        <v>104.1178079248271</v>
+        <v>104.117807924827</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.72612186028604</v>
+        <v>96.72612186028601</v>
       </c>
     </row>
     <row r="17">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7417345196995</v>
+        <v>132.7523013332147</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>77.21879642024859</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T18" t="n">
-        <v>142.424936488856</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.379936475684765</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V18" t="n">
-        <v>8.650008585332273</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.6536091708978</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>49.60213120438716</v>
       </c>
       <c r="T19" t="n">
-        <v>32.17300982748936</v>
+        <v>4.065466384195429</v>
       </c>
       <c r="U19" t="n">
         <v>62.78067631351171</v>
@@ -2160,25 +2160,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>136.6960885086871</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>55.93991633239508</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>77.21879642024859</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.379936475684765</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V21" t="n">
-        <v>8.650008585332273</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>28.42459968298937</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>29.6776286126163</v>
       </c>
       <c r="W22" t="n">
-        <v>258.5950070472844</v>
+        <v>62.83385443309268</v>
       </c>
       <c r="X22" t="n">
         <v>2.881637477986402</v>
@@ -2400,13 +2400,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>56.56641675606684</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.379936475684765</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V24" t="n">
-        <v>202.9987178644679</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2463,7 +2463,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>72.15507595161208</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.00061294779456</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>123.6060766625797</v>
       </c>
       <c r="S25" t="n">
-        <v>135.7605396663971</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>4.065466384195429</v>
@@ -2558,7 +2558,7 @@
         <v>224.8735010598801</v>
       </c>
       <c r="D26" t="n">
-        <v>214.4931381355359</v>
+        <v>214.4931381355358</v>
       </c>
       <c r="E26" t="n">
         <v>241.0064411362249</v>
@@ -2567,13 +2567,13 @@
         <v>265.1822688614783</v>
       </c>
       <c r="G26" t="n">
-        <v>272.2170943914628</v>
+        <v>272.2170943914627</v>
       </c>
       <c r="H26" t="n">
         <v>190.6446289061489</v>
       </c>
       <c r="I26" t="n">
-        <v>42.83115309614362</v>
+        <v>42.83115309614359</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.76539129202314</v>
+        <v>51.76539129202312</v>
       </c>
       <c r="T26" t="n">
-        <v>78.55062316566216</v>
+        <v>78.55062316566212</v>
       </c>
       <c r="U26" t="n">
-        <v>109.3240828460175</v>
+        <v>109.3240828460174</v>
       </c>
       <c r="V26" t="n">
         <v>186.4216269034568</v>
       </c>
       <c r="W26" t="n">
-        <v>208.4185223814921</v>
+        <v>208.418522381492</v>
       </c>
       <c r="X26" t="n">
-        <v>228.7500045121069</v>
+        <v>228.7500045121068</v>
       </c>
       <c r="Y26" t="n">
         <v>244.5754771321733</v>
@@ -2646,7 +2646,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>163.7333265046506</v>
+        <v>21.62173188558803</v>
       </c>
       <c r="T27" t="n">
-        <v>197.2479873695406</v>
+        <v>142.2292100820324</v>
       </c>
       <c r="U27" t="n">
-        <v>98.77094532161414</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V27" t="n">
-        <v>89.79713642059261</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
         <v>249.98934675</v>
@@ -2700,7 +2700,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>61.55955679952351</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.97209687162129</v>
+        <v>37.97209687162126</v>
       </c>
       <c r="C28" t="n">
-        <v>25.22495831213982</v>
+        <v>25.22495831213979</v>
       </c>
       <c r="D28" t="n">
-        <v>6.893971895456843</v>
+        <v>6.893971895456815</v>
       </c>
       <c r="E28" t="n">
-        <v>4.863029554136659</v>
+        <v>4.863029554136631</v>
       </c>
       <c r="F28" t="n">
-        <v>4.04742679074198</v>
+        <v>4.047426790741952</v>
       </c>
       <c r="G28" t="n">
-        <v>25.54201455183527</v>
+        <v>25.54201455183524</v>
       </c>
       <c r="H28" t="n">
-        <v>17.42440280342109</v>
+        <v>17.42440280342106</v>
       </c>
       <c r="I28" t="n">
-        <v>4.550397237726479</v>
+        <v>4.550397237726452</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.66904496841025</v>
+        <v>20.66904496841022</v>
       </c>
       <c r="S28" t="n">
-        <v>76.1333287204863</v>
+        <v>76.13332872048628</v>
       </c>
       <c r="T28" t="n">
-        <v>85.21259421945577</v>
+        <v>85.21259421945574</v>
       </c>
       <c r="U28" t="n">
-        <v>143.9278041487721</v>
+        <v>143.927804148772</v>
       </c>
       <c r="V28" t="n">
         <v>110.8247564478766</v>
@@ -2776,10 +2776,10 @@
         <v>143.980982268353</v>
       </c>
       <c r="X28" t="n">
-        <v>84.02876531324674</v>
+        <v>84.02876531324671</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.6370792487057</v>
+        <v>76.63707924870567</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>224.8735010598801</v>
       </c>
       <c r="D29" t="n">
-        <v>214.4931381355359</v>
+        <v>214.4931381355358</v>
       </c>
       <c r="E29" t="n">
         <v>241.0064411362249</v>
@@ -2804,13 +2804,13 @@
         <v>265.1822688614783</v>
       </c>
       <c r="G29" t="n">
-        <v>272.2170943914628</v>
+        <v>272.2170943914627</v>
       </c>
       <c r="H29" t="n">
         <v>190.6446289061489</v>
       </c>
       <c r="I29" t="n">
-        <v>42.83115309614361</v>
+        <v>42.83115309614359</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.76539129202315</v>
+        <v>51.76539129202312</v>
       </c>
       <c r="T29" t="n">
-        <v>78.55062316566215</v>
+        <v>78.55062316566212</v>
       </c>
       <c r="U29" t="n">
-        <v>109.3240828460175</v>
+        <v>109.3240828460174</v>
       </c>
       <c r="V29" t="n">
         <v>186.4216269034568</v>
       </c>
       <c r="W29" t="n">
-        <v>208.4185223814921</v>
+        <v>208.418522381492</v>
       </c>
       <c r="X29" t="n">
-        <v>228.7500045121069</v>
+        <v>228.7500045121068</v>
       </c>
       <c r="Y29" t="n">
         <v>244.5754771321733</v>
@@ -2883,13 +2883,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7417345196995</v>
+        <v>87.09281733155446</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>103.1648225144998</v>
+        <v>21.62173188558803</v>
       </c>
       <c r="T30" t="n">
-        <v>197.2479873695406</v>
+        <v>55.13639275047807</v>
       </c>
       <c r="U30" t="n">
-        <v>82.52706431094509</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>107.8777521309375</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>61.55955679952351</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.97209687162129</v>
+        <v>37.97209687162126</v>
       </c>
       <c r="C31" t="n">
-        <v>25.22495831213982</v>
+        <v>25.22495831213979</v>
       </c>
       <c r="D31" t="n">
-        <v>6.893971895456843</v>
+        <v>6.893971895456815</v>
       </c>
       <c r="E31" t="n">
-        <v>4.863029554136659</v>
+        <v>4.863029554136631</v>
       </c>
       <c r="F31" t="n">
-        <v>4.04742679074198</v>
+        <v>4.047426790741952</v>
       </c>
       <c r="G31" t="n">
-        <v>25.54201455183527</v>
+        <v>25.54201455183524</v>
       </c>
       <c r="H31" t="n">
-        <v>17.42440280342109</v>
+        <v>17.42440280342106</v>
       </c>
       <c r="I31" t="n">
-        <v>4.550397237726479</v>
+        <v>4.550397237726454</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.66904496841025</v>
+        <v>20.66904496841023</v>
       </c>
       <c r="S31" t="n">
-        <v>76.1333287204863</v>
+        <v>76.13332872048628</v>
       </c>
       <c r="T31" t="n">
-        <v>85.21259421945577</v>
+        <v>85.21259421945574</v>
       </c>
       <c r="U31" t="n">
-        <v>143.9278041487721</v>
+        <v>143.927804148772</v>
       </c>
       <c r="V31" t="n">
         <v>110.8247564478766</v>
@@ -3013,10 +3013,10 @@
         <v>143.980982268353</v>
       </c>
       <c r="X31" t="n">
-        <v>84.02876531324674</v>
+        <v>84.02876531324671</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.6370792487057</v>
+        <v>76.63707924870567</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.6048153723326</v>
+        <v>241.6048153723325</v>
       </c>
       <c r="C32" t="n">
-        <v>224.8735010598802</v>
+        <v>224.8735010598801</v>
       </c>
       <c r="D32" t="n">
-        <v>214.493138135536</v>
+        <v>214.4931381355359</v>
       </c>
       <c r="E32" t="n">
-        <v>241.006441136225</v>
+        <v>241.0064411362249</v>
       </c>
       <c r="F32" t="n">
-        <v>265.1822688614784</v>
+        <v>265.1822688614783</v>
       </c>
       <c r="G32" t="n">
         <v>272.2170943914628</v>
       </c>
       <c r="H32" t="n">
-        <v>190.644628906149</v>
+        <v>190.6446289061489</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83115309614371</v>
+        <v>42.83115309614362</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.76539129202322</v>
+        <v>51.76539129202314</v>
       </c>
       <c r="T32" t="n">
-        <v>78.55062316566224</v>
+        <v>78.55062316566216</v>
       </c>
       <c r="U32" t="n">
         <v>109.3240828460175</v>
       </c>
       <c r="V32" t="n">
-        <v>186.4216269034569</v>
+        <v>186.4216269034568</v>
       </c>
       <c r="W32" t="n">
-        <v>208.4185223814922</v>
+        <v>208.4185223814921</v>
       </c>
       <c r="X32" t="n">
-        <v>228.750004512107</v>
+        <v>228.7500045121069</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.5754771321734</v>
+        <v>244.5754771321733</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.3533483228367</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -3120,7 +3120,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>87.092817331554</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>163.7333265046506</v>
+        <v>21.62173188558805</v>
       </c>
       <c r="T33" t="n">
-        <v>55.13639275047819</v>
+        <v>55.1363927504781</v>
       </c>
       <c r="U33" t="n">
         <v>224.6386589300076</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.97209687162137</v>
+        <v>37.97209687162129</v>
       </c>
       <c r="C34" t="n">
-        <v>25.2249583121399</v>
+        <v>25.22495831213982</v>
       </c>
       <c r="D34" t="n">
-        <v>6.893971895456929</v>
+        <v>6.893971895456843</v>
       </c>
       <c r="E34" t="n">
-        <v>4.863029554136745</v>
+        <v>4.863029554136659</v>
       </c>
       <c r="F34" t="n">
-        <v>4.047426790742065</v>
+        <v>4.04742679074198</v>
       </c>
       <c r="G34" t="n">
-        <v>25.54201455183535</v>
+        <v>25.54201455183527</v>
       </c>
       <c r="H34" t="n">
-        <v>17.42440280342117</v>
+        <v>17.42440280342109</v>
       </c>
       <c r="I34" t="n">
-        <v>4.550397237726564</v>
+        <v>4.550397237726482</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.66904496841033</v>
+        <v>20.66904496841025</v>
       </c>
       <c r="S34" t="n">
-        <v>76.13332872048639</v>
+        <v>76.1333287204863</v>
       </c>
       <c r="T34" t="n">
-        <v>85.21259421945585</v>
+        <v>85.21259421945577</v>
       </c>
       <c r="U34" t="n">
         <v>143.9278041487721</v>
       </c>
       <c r="V34" t="n">
-        <v>110.8247564478767</v>
+        <v>110.8247564478766</v>
       </c>
       <c r="W34" t="n">
-        <v>143.9809822683531</v>
+        <v>143.980982268353</v>
       </c>
       <c r="X34" t="n">
-        <v>84.02876531324682</v>
+        <v>84.02876531324674</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.63707924870579</v>
+        <v>76.6370792487057</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.77345968035533</v>
+        <v>30.77345968035532</v>
       </c>
       <c r="V35" t="n">
         <v>107.8710037377947</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6386589300076</v>
+        <v>168.8568996377037</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3408,10 +3408,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>90.57578733158044</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>182.7786292662006</v>
       </c>
       <c r="T37" t="n">
-        <v>6.661971053793633</v>
+        <v>6.661971053793634</v>
       </c>
       <c r="U37" t="n">
         <v>65.37718098310991</v>
@@ -3484,7 +3484,7 @@
         <v>32.27413328221451</v>
       </c>
       <c r="W37" t="n">
-        <v>248.2089883688916</v>
+        <v>65.43035910269089</v>
       </c>
       <c r="X37" t="n">
         <v>5.478142147584606</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -3591,16 +3591,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>135.7417345196995</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.02575276428062</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T39" t="n">
         <v>197.2479873695406</v>
@@ -3639,16 +3639,16 @@
         <v>3.976441145282969</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>55.76237966524048</v>
       </c>
       <c r="W39" t="n">
-        <v>29.32712896527539</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>189.4406003199944</v>
+        <v>6.661971053793634</v>
       </c>
       <c r="U40" t="n">
         <v>65.37718098310991</v>
@@ -3727,7 +3727,7 @@
         <v>5.478142147584606</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>2.694937775516722</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>189.8394240803094</v>
       </c>
       <c r="C41" t="n">
-        <v>173.1081097678569</v>
+        <v>173.108109767857</v>
       </c>
       <c r="D41" t="n">
         <v>162.7277468435127</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.78523187363899</v>
+        <v>26.78523187363902</v>
       </c>
       <c r="U41" t="n">
-        <v>57.55869155399429</v>
+        <v>57.55869155399432</v>
       </c>
       <c r="V41" t="n">
         <v>134.6562356114337</v>
@@ -3806,7 +3806,7 @@
         <v>176.9846132200837</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.8100858401501</v>
+        <v>192.8100858401502</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I42" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.2479873695406</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6386589300076</v>
+        <v>199.5456720197346</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>215.5318799141653</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.36793742846313</v>
+        <v>24.36793742846316</v>
       </c>
       <c r="T43" t="n">
-        <v>33.4472029274326</v>
+        <v>33.44720292743263</v>
       </c>
       <c r="U43" t="n">
-        <v>92.16241285674887</v>
+        <v>92.1624128567489</v>
       </c>
       <c r="V43" t="n">
-        <v>59.05936515585347</v>
+        <v>59.0593651558535</v>
       </c>
       <c r="W43" t="n">
-        <v>92.21559097632985</v>
+        <v>92.21559097632988</v>
       </c>
       <c r="X43" t="n">
-        <v>32.26337402122357</v>
+        <v>32.2633740212236</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.87168795668254</v>
+        <v>24.87168795668256</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>189.8394240803094</v>
       </c>
       <c r="C44" t="n">
-        <v>173.1081097678569</v>
+        <v>173.108109767857</v>
       </c>
       <c r="D44" t="n">
         <v>162.7277468435127</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.78523187363899</v>
+        <v>26.78523187363901</v>
       </c>
       <c r="U44" t="n">
-        <v>57.55869155399429</v>
+        <v>57.55869155399432</v>
       </c>
       <c r="V44" t="n">
         <v>134.6562356114337</v>
@@ -4043,7 +4043,7 @@
         <v>176.9846132200837</v>
       </c>
       <c r="Y44" t="n">
-        <v>192.8100858401501</v>
+        <v>192.8100858401502</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.2479873695406</v>
+        <v>95.34261545844726</v>
       </c>
       <c r="U45" t="n">
         <v>224.6386589300076</v>
@@ -4116,7 +4116,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>126.9721393046399</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.36793742846313</v>
+        <v>24.36793742846316</v>
       </c>
       <c r="T46" t="n">
-        <v>33.4472029274326</v>
+        <v>33.44720292743263</v>
       </c>
       <c r="U46" t="n">
-        <v>92.16241285674887</v>
+        <v>92.1624128567489</v>
       </c>
       <c r="V46" t="n">
-        <v>59.05936515585347</v>
+        <v>59.0593651558535</v>
       </c>
       <c r="W46" t="n">
-        <v>92.21559097632985</v>
+        <v>92.21559097632988</v>
       </c>
       <c r="X46" t="n">
-        <v>32.26337402122357</v>
+        <v>32.2633740212236</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.87168795668254</v>
+        <v>24.87168795668256</v>
       </c>
     </row>
   </sheetData>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>813.7381627968368</v>
+        <v>1137.267580040482</v>
       </c>
       <c r="C11" t="n">
-        <v>566.3012499973818</v>
+        <v>889.8306672410275</v>
       </c>
       <c r="D11" t="n">
-        <v>329.3495522730219</v>
+        <v>652.8789695166677</v>
       </c>
       <c r="E11" t="n">
-        <v>329.3495522730219</v>
+        <v>389.1461576501978</v>
       </c>
       <c r="F11" t="n">
-        <v>329.3495522730219</v>
+        <v>389.1461576501978</v>
       </c>
       <c r="G11" t="n">
-        <v>34.09082802752393</v>
+        <v>310.5088757300018</v>
       </c>
       <c r="H11" t="n">
-        <v>34.09082802752393</v>
+        <v>97.64658126764911</v>
       </c>
       <c r="I11" t="n">
         <v>34.09082802752393</v>
       </c>
       <c r="J11" t="n">
-        <v>77.64171918777333</v>
+        <v>77.64171918777322</v>
       </c>
       <c r="K11" t="n">
-        <v>265.1898083646872</v>
+        <v>265.1898083646869</v>
       </c>
       <c r="L11" t="n">
-        <v>549.8288752482736</v>
+        <v>549.8288752482733</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7569750909474</v>
+        <v>881.7569750909473</v>
       </c>
       <c r="N11" t="n">
-        <v>1203.538843616951</v>
+        <v>1203.53884361695</v>
       </c>
       <c r="O11" t="n">
         <v>1461.259986043749</v>
@@ -5060,31 +5060,31 @@
         <v>1644.280225347656</v>
       </c>
       <c r="Q11" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R11" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S11" t="n">
-        <v>1704.541401376197</v>
+        <v>1631.96116510993</v>
       </c>
       <c r="T11" t="n">
-        <v>1704.541401376197</v>
+        <v>1532.325139072311</v>
       </c>
       <c r="U11" t="n">
-        <v>1704.541401376197</v>
+        <v>1401.604810327263</v>
       </c>
       <c r="V11" t="n">
-        <v>1495.944765502422</v>
+        <v>1401.604810327263</v>
       </c>
       <c r="W11" t="n">
-        <v>1265.129043287197</v>
+        <v>1401.604810327263</v>
       </c>
       <c r="X11" t="n">
-        <v>1013.776470434988</v>
+        <v>1401.604810327263</v>
       </c>
       <c r="Y11" t="n">
-        <v>1013.776470434988</v>
+        <v>1401.604810327263</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>461.9640825665168</v>
+        <v>610.7657671921241</v>
       </c>
       <c r="C12" t="n">
-        <v>289.2109674883339</v>
+        <v>561.2677551518021</v>
       </c>
       <c r="D12" t="n">
-        <v>264.8777638851386</v>
+        <v>536.9345515486068</v>
       </c>
       <c r="E12" t="n">
-        <v>230.5233379258542</v>
+        <v>502.5801255893223</v>
       </c>
       <c r="F12" t="n">
-        <v>208.8226509803318</v>
+        <v>357.6243356059392</v>
       </c>
       <c r="G12" t="n">
-        <v>111.6790957051195</v>
+        <v>220.5114724547275</v>
       </c>
       <c r="H12" t="n">
         <v>111.6790957051195</v>
@@ -5118,7 +5118,7 @@
         <v>34.09082802752393</v>
       </c>
       <c r="J12" t="n">
-        <v>67.8114856309769</v>
+        <v>67.81148563097688</v>
       </c>
       <c r="K12" t="n">
         <v>252.0510736548812</v>
@@ -5127,10 +5127,10 @@
         <v>560.633543293573</v>
       </c>
       <c r="M12" t="n">
-        <v>973.5349245418569</v>
+        <v>579.9557856232749</v>
       </c>
       <c r="N12" t="n">
-        <v>1001.829782463884</v>
+        <v>1001.829782463883</v>
       </c>
       <c r="O12" t="n">
         <v>1336.009925071734</v>
@@ -5139,31 +5139,31 @@
         <v>1587.792410277646</v>
       </c>
       <c r="Q12" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R12" t="n">
         <v>1626.542617113319</v>
       </c>
       <c r="S12" t="n">
-        <v>1584.410521661634</v>
+        <v>1461.155418623773</v>
       </c>
       <c r="T12" t="n">
-        <v>1385.17013037927</v>
+        <v>1261.915027341409</v>
       </c>
       <c r="U12" t="n">
-        <v>1281.517497124194</v>
+        <v>1060.553872636218</v>
       </c>
       <c r="V12" t="n">
-        <v>1047.266253649794</v>
+        <v>949.55773219968</v>
       </c>
       <c r="W12" t="n">
-        <v>918.0068650209885</v>
+        <v>820.2983435708741</v>
       </c>
       <c r="X12" t="n">
-        <v>711.479966426566</v>
+        <v>737.0265480143124</v>
       </c>
       <c r="Y12" t="n">
-        <v>505.7515306502164</v>
+        <v>654.5532152758237</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.575170882595</v>
+        <v>261.4051868299499</v>
       </c>
       <c r="C13" t="n">
-        <v>219.8034527778272</v>
+        <v>215.6334687251821</v>
       </c>
       <c r="D13" t="n">
-        <v>192.5478825686988</v>
+        <v>188.3778985160538</v>
       </c>
       <c r="E13" t="n">
-        <v>167.3437692699948</v>
+        <v>167.3437692699951</v>
       </c>
       <c r="F13" t="n">
         <v>142.9634971464369</v>
       </c>
       <c r="G13" t="n">
-        <v>96.87152021369386</v>
+        <v>96.87152021369383</v>
       </c>
       <c r="H13" t="n">
-        <v>58.97915110763182</v>
+        <v>58.9791511076318</v>
       </c>
       <c r="I13" t="n">
         <v>34.09082802752393</v>
       </c>
       <c r="J13" t="n">
-        <v>83.45962932283533</v>
+        <v>83.45962932283535</v>
       </c>
       <c r="K13" t="n">
-        <v>216.7776820939541</v>
+        <v>216.7776820939542</v>
       </c>
       <c r="L13" t="n">
         <v>409.3994443472051</v>
       </c>
       <c r="M13" t="n">
-        <v>616.5181956441178</v>
+        <v>616.518195644118</v>
       </c>
       <c r="N13" t="n">
-        <v>826.7257971805966</v>
+        <v>826.7257971805968</v>
       </c>
       <c r="O13" t="n">
-        <v>1014.771769283488</v>
+        <v>1014.771769283489</v>
       </c>
       <c r="P13" t="n">
         <v>1169.890169899395</v>
@@ -5227,22 +5227,22 @@
         <v>1092.927789657317</v>
       </c>
       <c r="T13" t="n">
-        <v>990.7324839816428</v>
+        <v>986.5624999289978</v>
       </c>
       <c r="U13" t="n">
-        <v>825.0589013954284</v>
+        <v>820.8889173427833</v>
       </c>
       <c r="V13" t="n">
-        <v>692.8227407293102</v>
+        <v>688.6527566766651</v>
       </c>
       <c r="W13" t="n">
-        <v>527.0954428707918</v>
+        <v>522.9254588181466</v>
       </c>
       <c r="X13" t="n">
-        <v>421.925939916421</v>
+        <v>417.7559558637758</v>
       </c>
       <c r="Y13" t="n">
-        <v>324.2227865221927</v>
+        <v>320.0528024695475</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.1647503682091</v>
+        <v>881.2352040112683</v>
       </c>
       <c r="C14" t="n">
-        <v>179.1647503682091</v>
+        <v>881.2352040112683</v>
       </c>
       <c r="D14" t="n">
-        <v>179.1647503682091</v>
+        <v>881.2352040112683</v>
       </c>
       <c r="E14" t="n">
-        <v>179.1647503682091</v>
+        <v>617.5023921447984</v>
       </c>
       <c r="F14" t="n">
-        <v>179.1647503682091</v>
+        <v>329.349552273022</v>
       </c>
       <c r="G14" t="n">
-        <v>97.64658126764915</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="H14" t="n">
-        <v>97.64658126764915</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="I14" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="J14" t="n">
-        <v>77.64171918777333</v>
+        <v>77.64171918777322</v>
       </c>
       <c r="K14" t="n">
-        <v>265.1898083646871</v>
+        <v>265.1898083646869</v>
       </c>
       <c r="L14" t="n">
-        <v>549.8288752482736</v>
+        <v>549.8288752482733</v>
       </c>
       <c r="M14" t="n">
-        <v>881.7569750909474</v>
+        <v>881.7569750909471</v>
       </c>
       <c r="N14" t="n">
-        <v>1203.538843616951</v>
+        <v>1203.53884361695</v>
       </c>
       <c r="O14" t="n">
         <v>1461.259986043749</v>
@@ -5297,31 +5297,31 @@
         <v>1644.280225347656</v>
       </c>
       <c r="Q14" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R14" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S14" t="n">
-        <v>1631.96116510993</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="T14" t="n">
-        <v>1532.325139072312</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="U14" t="n">
-        <v>1401.604810327263</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="V14" t="n">
-        <v>1193.008174453488</v>
+        <v>1664.262905881322</v>
       </c>
       <c r="W14" t="n">
-        <v>962.1924522382637</v>
+        <v>1664.262905881322</v>
       </c>
       <c r="X14" t="n">
-        <v>710.8398793860545</v>
+        <v>1412.910333029113</v>
       </c>
       <c r="Y14" t="n">
-        <v>443.5019806549902</v>
+        <v>1145.572434298049</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>424.3451227649207</v>
+        <v>539.9628668293938</v>
       </c>
       <c r="C15" t="n">
-        <v>374.8471107245986</v>
+        <v>367.2097517512109</v>
       </c>
       <c r="D15" t="n">
-        <v>227.2588040835425</v>
+        <v>219.6214451101548</v>
       </c>
       <c r="E15" t="n">
-        <v>69.64927508639717</v>
+        <v>69.6492750863971</v>
       </c>
       <c r="F15" t="n">
-        <v>47.94858814087483</v>
+        <v>47.94858814087478</v>
       </c>
       <c r="G15" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="H15" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="I15" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="J15" t="n">
-        <v>67.8114856309769</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="K15" t="n">
-        <v>252.0510736548812</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="L15" t="n">
-        <v>560.633543293573</v>
+        <v>342.6732976662157</v>
       </c>
       <c r="M15" t="n">
-        <v>973.5349245418569</v>
+        <v>755.5746789144995</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.009925071734</v>
+        <v>1177.448675755108</v>
       </c>
       <c r="O15" t="n">
-        <v>1336.009925071734</v>
+        <v>1511.628818362959</v>
       </c>
       <c r="P15" t="n">
-        <v>1587.792410277646</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="Q15" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R15" t="n">
-        <v>1626.542617113319</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S15" t="n">
-        <v>1461.155418623773</v>
+        <v>1662.409305924511</v>
       </c>
       <c r="T15" t="n">
-        <v>1261.915027341409</v>
+        <v>1586.424017680007</v>
       </c>
       <c r="U15" t="n">
-        <v>1035.007291048472</v>
+        <v>1482.771384424931</v>
       </c>
       <c r="V15" t="n">
-        <v>924.0111506119335</v>
+        <v>1248.520140950532</v>
       </c>
       <c r="W15" t="n">
-        <v>794.7517619831276</v>
+        <v>996.0056492838654</v>
       </c>
       <c r="X15" t="n">
-        <v>673.8610066249698</v>
+        <v>912.7338537273038</v>
       </c>
       <c r="Y15" t="n">
-        <v>591.3876738864811</v>
+        <v>707.0054179509542</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>261.4051868299491</v>
+        <v>261.4051868299501</v>
       </c>
       <c r="C16" t="n">
-        <v>215.6334687251812</v>
+        <v>215.6334687251823</v>
       </c>
       <c r="D16" t="n">
-        <v>188.3778985160528</v>
+        <v>188.3778985160538</v>
       </c>
       <c r="E16" t="n">
-        <v>167.3437692699948</v>
+        <v>163.1737852173498</v>
       </c>
       <c r="F16" t="n">
-        <v>142.9634971464369</v>
+        <v>138.7935130937919</v>
       </c>
       <c r="G16" t="n">
-        <v>96.87152021369388</v>
+        <v>96.87152021369441</v>
       </c>
       <c r="H16" t="n">
-        <v>58.97915110763182</v>
+        <v>58.97915110763178</v>
       </c>
       <c r="I16" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="J16" t="n">
-        <v>83.45962932283533</v>
+        <v>83.45962932283518</v>
       </c>
       <c r="K16" t="n">
-        <v>216.7776820939542</v>
+        <v>216.777682093954</v>
       </c>
       <c r="L16" t="n">
-        <v>409.3994443472052</v>
+        <v>409.399444347205</v>
       </c>
       <c r="M16" t="n">
-        <v>616.5181956441178</v>
+        <v>616.5181956441177</v>
       </c>
       <c r="N16" t="n">
-        <v>826.7257971805966</v>
+        <v>826.7257971805965</v>
       </c>
       <c r="O16" t="n">
         <v>1014.771769283488</v>
@@ -5464,22 +5464,22 @@
         <v>1092.927789657317</v>
       </c>
       <c r="T16" t="n">
-        <v>986.5624999289971</v>
+        <v>986.5624999289977</v>
       </c>
       <c r="U16" t="n">
-        <v>820.8889173427826</v>
+        <v>820.8889173427832</v>
       </c>
       <c r="V16" t="n">
-        <v>688.6527566766645</v>
+        <v>688.652756676665</v>
       </c>
       <c r="W16" t="n">
-        <v>522.9254588181459</v>
+        <v>522.9254588181466</v>
       </c>
       <c r="X16" t="n">
-        <v>417.7559558637751</v>
+        <v>417.755955863776</v>
       </c>
       <c r="Y16" t="n">
-        <v>320.0528024695467</v>
+        <v>320.0528024695477</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.9335608347649</v>
+        <v>964.9335608347656</v>
       </c>
       <c r="C17" t="n">
-        <v>819.7554060624216</v>
+        <v>819.7554060624225</v>
       </c>
       <c r="D17" t="n">
-        <v>685.0624663651736</v>
+        <v>685.0624663651745</v>
       </c>
       <c r="E17" t="n">
-        <v>523.5884125258154</v>
+        <v>523.5884125258162</v>
       </c>
       <c r="F17" t="n">
-        <v>337.6943306811509</v>
+        <v>337.6943306811515</v>
       </c>
       <c r="G17" t="n">
         <v>144.6943644627649</v>
@@ -5513,13 +5513,13 @@
         <v>34.09082802752393</v>
       </c>
       <c r="J17" t="n">
-        <v>77.64171918777325</v>
+        <v>77.64171918777339</v>
       </c>
       <c r="K17" t="n">
-        <v>265.189808364687</v>
+        <v>265.1898083646871</v>
       </c>
       <c r="L17" t="n">
-        <v>549.8288752482734</v>
+        <v>549.8288752482736</v>
       </c>
       <c r="M17" t="n">
         <v>881.7569750909474</v>
@@ -5555,7 +5555,7 @@
         <v>1441.184988623484</v>
       </c>
       <c r="X17" t="n">
-        <v>1292.091173798386</v>
+        <v>1292.091173798387</v>
       </c>
       <c r="Y17" t="n">
         <v>1127.012033094434</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>807.7779612275237</v>
+        <v>168.1840616974378</v>
       </c>
       <c r="C18" t="n">
-        <v>807.7779612275237</v>
+        <v>168.1840616974378</v>
       </c>
       <c r="D18" t="n">
-        <v>660.1896545864676</v>
+        <v>168.1840616974378</v>
       </c>
       <c r="E18" t="n">
-        <v>502.5801255893223</v>
+        <v>168.1840616974378</v>
       </c>
       <c r="F18" t="n">
-        <v>357.6243356059392</v>
+        <v>168.1840616974378</v>
       </c>
       <c r="G18" t="n">
-        <v>220.5114724547275</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="H18" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="I18" t="n">
         <v>34.09082802752393</v>
       </c>
       <c r="J18" t="n">
-        <v>67.8114856309769</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="K18" t="n">
-        <v>252.0510736548812</v>
+        <v>218.3304160514283</v>
       </c>
       <c r="L18" t="n">
-        <v>560.633543293573</v>
+        <v>526.91288569012</v>
       </c>
       <c r="M18" t="n">
-        <v>579.955785623275</v>
+        <v>939.8142669384038</v>
       </c>
       <c r="N18" t="n">
-        <v>1001.829782463884</v>
+        <v>1118.578773562434</v>
       </c>
       <c r="O18" t="n">
-        <v>1336.009925071734</v>
+        <v>1452.758916170285</v>
       </c>
       <c r="P18" t="n">
-        <v>1587.792410277646</v>
+        <v>1704.541401376197</v>
       </c>
       <c r="Q18" t="n">
         <v>1704.541401376197</v>
@@ -5619,25 +5619,25 @@
         <v>1626.542617113319</v>
       </c>
       <c r="S18" t="n">
-        <v>1626.542617113319</v>
+        <v>1461.155418623773</v>
       </c>
       <c r="T18" t="n">
-        <v>1482.679044902354</v>
+        <v>1461.155418623773</v>
       </c>
       <c r="U18" t="n">
-        <v>1481.285169674389</v>
+        <v>1234.247682330836</v>
       </c>
       <c r="V18" t="n">
-        <v>1472.547787264963</v>
+        <v>999.996438856437</v>
       </c>
       <c r="W18" t="n">
-        <v>1220.033295598296</v>
+        <v>747.4819471897703</v>
       </c>
       <c r="X18" t="n">
-        <v>1013.506397003873</v>
+        <v>540.9550485953478</v>
       </c>
       <c r="Y18" t="n">
-        <v>807.7779612275237</v>
+        <v>335.2266128189982</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>203.4379079981278</v>
+        <v>181.7262031889426</v>
       </c>
       <c r="C19" t="n">
-        <v>203.4379079981278</v>
+        <v>181.7262031889426</v>
       </c>
       <c r="D19" t="n">
-        <v>203.4379079981278</v>
+        <v>181.7262031889426</v>
       </c>
       <c r="E19" t="n">
-        <v>203.4379079981278</v>
+        <v>181.7262031889426</v>
       </c>
       <c r="F19" t="n">
-        <v>203.4379079981278</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="G19" t="n">
         <v>34.09082802752393</v>
@@ -5680,7 +5680,7 @@
         <v>118.425990077079</v>
       </c>
       <c r="M19" t="n">
-        <v>204.7424148865844</v>
+        <v>204.7424148865843</v>
       </c>
       <c r="N19" t="n">
         <v>294.1476899356558</v>
@@ -5698,25 +5698,25 @@
         <v>395.7074096796393</v>
       </c>
       <c r="S19" t="n">
-        <v>395.7074096796393</v>
+        <v>345.604246846925</v>
       </c>
       <c r="T19" t="n">
-        <v>363.2094199549026</v>
+        <v>341.4977151457175</v>
       </c>
       <c r="U19" t="n">
-        <v>299.7945953957999</v>
+        <v>278.0828905866148</v>
       </c>
       <c r="V19" t="n">
-        <v>269.8171927567935</v>
+        <v>248.1054879476084</v>
       </c>
       <c r="W19" t="n">
-        <v>206.3486529253868</v>
+        <v>184.6369481162016</v>
       </c>
       <c r="X19" t="n">
-        <v>203.4379079981278</v>
+        <v>181.7262031889426</v>
       </c>
       <c r="Y19" t="n">
-        <v>203.4379079981278</v>
+        <v>181.7262031889426</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.9335608347652</v>
+        <v>964.9335608347653</v>
       </c>
       <c r="C20" t="n">
-        <v>819.755406062422</v>
+        <v>819.7554060624221</v>
       </c>
       <c r="D20" t="n">
-        <v>685.062466365174</v>
+        <v>685.0624663651741</v>
       </c>
       <c r="E20" t="n">
-        <v>523.5884125258158</v>
+        <v>523.5884125258159</v>
       </c>
       <c r="F20" t="n">
-        <v>337.6943306811511</v>
+        <v>337.6943306811513</v>
       </c>
       <c r="G20" t="n">
         <v>144.6943644627649</v>
@@ -5750,13 +5750,13 @@
         <v>34.09082802752393</v>
       </c>
       <c r="J20" t="n">
-        <v>77.64171918777325</v>
+        <v>77.64171918777333</v>
       </c>
       <c r="K20" t="n">
-        <v>265.189808364687</v>
+        <v>265.1898083646871</v>
       </c>
       <c r="L20" t="n">
-        <v>549.8288752482734</v>
+        <v>549.8288752482736</v>
       </c>
       <c r="M20" t="n">
         <v>881.7569750909474</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>784.5989823169289</v>
+        <v>168.1840616974378</v>
       </c>
       <c r="C21" t="n">
-        <v>611.845867238746</v>
+        <v>168.1840616974378</v>
       </c>
       <c r="D21" t="n">
-        <v>473.7690101592641</v>
+        <v>168.1840616974378</v>
       </c>
       <c r="E21" t="n">
-        <v>316.1594811621188</v>
+        <v>168.1840616974378</v>
       </c>
       <c r="F21" t="n">
-        <v>171.2036911787356</v>
+        <v>168.1840616974378</v>
       </c>
       <c r="G21" t="n">
-        <v>34.09082802752393</v>
+        <v>168.1840616974378</v>
       </c>
       <c r="H21" t="n">
-        <v>34.09082802752393</v>
+        <v>111.6790957051195</v>
       </c>
       <c r="I21" t="n">
         <v>34.09082802752393</v>
@@ -5838,13 +5838,13 @@
         <v>560.633543293573</v>
       </c>
       <c r="M21" t="n">
-        <v>973.5349245418569</v>
+        <v>579.955785623275</v>
       </c>
       <c r="N21" t="n">
-        <v>1253.612267669796</v>
+        <v>1001.829782463884</v>
       </c>
       <c r="O21" t="n">
-        <v>1587.792410277646</v>
+        <v>1336.009925071734</v>
       </c>
       <c r="P21" t="n">
         <v>1587.792410277646</v>
@@ -5856,25 +5856,25 @@
         <v>1626.542617113319</v>
       </c>
       <c r="S21" t="n">
-        <v>1626.542617113319</v>
+        <v>1461.155418623773</v>
       </c>
       <c r="T21" t="n">
-        <v>1626.542617113319</v>
+        <v>1461.155418623773</v>
       </c>
       <c r="U21" t="n">
-        <v>1625.148741885355</v>
+        <v>1234.247682330836</v>
       </c>
       <c r="V21" t="n">
-        <v>1616.411359475928</v>
+        <v>999.996438856437</v>
       </c>
       <c r="W21" t="n">
-        <v>1363.896867809261</v>
+        <v>747.4819471897703</v>
       </c>
       <c r="X21" t="n">
-        <v>1157.369969214839</v>
+        <v>540.9550485953478</v>
       </c>
       <c r="Y21" t="n">
-        <v>951.6415334384893</v>
+        <v>335.2266128189982</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.09082802752393</v>
+        <v>231.829366021657</v>
       </c>
       <c r="C22" t="n">
-        <v>34.09082802752393</v>
+        <v>62.80254487902835</v>
       </c>
       <c r="D22" t="n">
         <v>34.09082802752393</v>
@@ -5947,13 +5947,13 @@
         <v>298.2086507803227</v>
       </c>
       <c r="W22" t="n">
-        <v>37.00157295478292</v>
+        <v>234.740110948916</v>
       </c>
       <c r="X22" t="n">
-        <v>34.09082802752393</v>
+        <v>231.829366021657</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.09082802752393</v>
+        <v>231.829366021657</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.9335608347646</v>
+        <v>964.9335608347657</v>
       </c>
       <c r="C23" t="n">
-        <v>819.7554060624215</v>
+        <v>819.7554060624225</v>
       </c>
       <c r="D23" t="n">
-        <v>685.0624663651735</v>
+        <v>685.0624663651745</v>
       </c>
       <c r="E23" t="n">
-        <v>523.5884125258152</v>
+        <v>523.588412525816</v>
       </c>
       <c r="F23" t="n">
-        <v>337.6943306811505</v>
+        <v>337.6943306811513</v>
       </c>
       <c r="G23" t="n">
         <v>144.6943644627649</v>
@@ -5987,19 +5987,19 @@
         <v>34.09082802752392</v>
       </c>
       <c r="J23" t="n">
-        <v>77.64171918777325</v>
+        <v>77.64171918777294</v>
       </c>
       <c r="K23" t="n">
-        <v>265.189808364687</v>
+        <v>265.1898083646867</v>
       </c>
       <c r="L23" t="n">
-        <v>549.8288752482734</v>
+        <v>549.8288752482731</v>
       </c>
       <c r="M23" t="n">
-        <v>881.7569750909474</v>
+        <v>881.756975090947</v>
       </c>
       <c r="N23" t="n">
-        <v>1203.538843616951</v>
+        <v>1203.53884361695</v>
       </c>
       <c r="O23" t="n">
         <v>1461.259986043749</v>
@@ -6026,13 +6026,13 @@
         <v>1569.741952811597</v>
       </c>
       <c r="W23" t="n">
-        <v>1441.184988623484</v>
+        <v>1441.184988623485</v>
       </c>
       <c r="X23" t="n">
-        <v>1292.091173798386</v>
+        <v>1292.091173798387</v>
       </c>
       <c r="Y23" t="n">
-        <v>1127.012033094433</v>
+        <v>1127.012033094435</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>429.3880007666855</v>
+        <v>411.5700444498607</v>
       </c>
       <c r="C24" t="n">
-        <v>256.6348856885027</v>
+        <v>238.8169293716779</v>
       </c>
       <c r="D24" t="n">
-        <v>256.6348856885027</v>
+        <v>91.22862273062174</v>
       </c>
       <c r="E24" t="n">
-        <v>256.6348856885027</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="F24" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="G24" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="H24" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="I24" t="n">
         <v>34.09082802752392</v>
@@ -6075,43 +6075,43 @@
         <v>526.91288569012</v>
       </c>
       <c r="M24" t="n">
-        <v>939.8142669384039</v>
+        <v>696.7047767218251</v>
       </c>
       <c r="N24" t="n">
-        <v>1361.688263779012</v>
+        <v>1118.578773562434</v>
       </c>
       <c r="O24" t="n">
-        <v>1587.792410277646</v>
+        <v>1452.758916170284</v>
       </c>
       <c r="P24" t="n">
-        <v>1587.792410277646</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="Q24" t="n">
         <v>1704.541401376196</v>
       </c>
       <c r="R24" t="n">
-        <v>1626.542617113319</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S24" t="n">
-        <v>1461.155418623773</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="T24" t="n">
-        <v>1261.915027341408</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="U24" t="n">
-        <v>1260.521152113444</v>
+        <v>1477.633665083259</v>
       </c>
       <c r="V24" t="n">
-        <v>1055.471942149335</v>
+        <v>1243.38242160886</v>
       </c>
       <c r="W24" t="n">
-        <v>802.9574504826684</v>
+        <v>990.8679299421932</v>
       </c>
       <c r="X24" t="n">
-        <v>596.4305518882459</v>
+        <v>784.3410313477707</v>
       </c>
       <c r="Y24" t="n">
-        <v>596.4305518882459</v>
+        <v>578.6125955714211</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.09082802752392</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="C25" t="n">
-        <v>34.09082802752392</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="D25" t="n">
-        <v>34.09082802752392</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="E25" t="n">
-        <v>34.09082802752392</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="F25" t="n">
-        <v>34.09082802752392</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="G25" t="n">
-        <v>34.09082802752392</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="H25" t="n">
-        <v>34.09082802752392</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="I25" t="n">
-        <v>34.09082802752392</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="J25" t="n">
         <v>34.09082802752392</v>
@@ -6166,31 +6166,31 @@
         <v>395.7074096796393</v>
       </c>
       <c r="Q25" t="n">
-        <v>335.1007299343923</v>
+        <v>395.7074096796393</v>
       </c>
       <c r="R25" t="n">
-        <v>335.1007299343923</v>
+        <v>270.8527867881447</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9688716855063</v>
+        <v>270.8527867881447</v>
       </c>
       <c r="T25" t="n">
-        <v>193.8623399842988</v>
+        <v>266.7462550869372</v>
       </c>
       <c r="U25" t="n">
-        <v>130.447515425196</v>
+        <v>203.3314305278345</v>
       </c>
       <c r="V25" t="n">
-        <v>100.4701127861897</v>
+        <v>173.3540278888281</v>
       </c>
       <c r="W25" t="n">
-        <v>37.00157295478291</v>
+        <v>109.8854880574214</v>
       </c>
       <c r="X25" t="n">
-        <v>34.09082802752392</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.09082802752392</v>
+        <v>106.9747431301624</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1523.640936362585</v>
+        <v>1523.640936362583</v>
       </c>
       <c r="C26" t="n">
-        <v>1296.495985797049</v>
+        <v>1296.495985797048</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.836250306609</v>
+        <v>1079.836250306608</v>
       </c>
       <c r="E26" t="n">
-        <v>836.3954006740587</v>
+        <v>836.3954006740573</v>
       </c>
       <c r="F26" t="n">
-        <v>568.5345230362018</v>
+        <v>568.5345230362004</v>
       </c>
       <c r="G26" t="n">
-        <v>293.5677610246232</v>
+        <v>293.5677610246219</v>
       </c>
       <c r="H26" t="n">
         <v>100.99742879619</v>
       </c>
       <c r="I26" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J26" t="n">
-        <v>241.9750076231057</v>
+        <v>241.9750076231055</v>
       </c>
       <c r="K26" t="n">
-        <v>570.2135754728912</v>
+        <v>570.2135754728911</v>
       </c>
       <c r="L26" t="n">
-        <v>995.5431210293493</v>
+        <v>995.5431210293494</v>
       </c>
       <c r="M26" t="n">
         <v>1468.161699544895</v>
@@ -6248,28 +6248,28 @@
         <v>2853.708040521632</v>
       </c>
       <c r="R26" t="n">
-        <v>2886.681889499215</v>
+        <v>2886.681889499214</v>
       </c>
       <c r="S26" t="n">
         <v>2834.393615466869</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.04955166317</v>
+        <v>2755.049551663169</v>
       </c>
       <c r="U26" t="n">
-        <v>2644.621185152041</v>
+        <v>2644.621185152039</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.316511512186</v>
+        <v>2456.316511512184</v>
       </c>
       <c r="W26" t="n">
-        <v>2245.792751530881</v>
+        <v>2245.792751530879</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.732140912591</v>
+        <v>2014.732140912589</v>
       </c>
       <c r="Y26" t="n">
-        <v>1767.686204415446</v>
+        <v>1767.686204415445</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>817.7532416409633</v>
+        <v>680.6403784897517</v>
       </c>
       <c r="C27" t="n">
-        <v>645.0001265627805</v>
+        <v>507.8872634115689</v>
       </c>
       <c r="D27" t="n">
-        <v>497.4118199217244</v>
+        <v>360.2989567705127</v>
       </c>
       <c r="E27" t="n">
-        <v>339.8022909245791</v>
+        <v>202.6894277733674</v>
       </c>
       <c r="F27" t="n">
-        <v>194.846500941196</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="G27" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="H27" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="I27" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J27" t="n">
-        <v>91.45429539343726</v>
+        <v>91.45429539343725</v>
       </c>
       <c r="K27" t="n">
         <v>275.6938834173416</v>
@@ -6312,43 +6312,43 @@
         <v>584.2763530560333</v>
       </c>
       <c r="M27" t="n">
-        <v>997.1777343043171</v>
+        <v>997.177734304317</v>
       </c>
       <c r="N27" t="n">
         <v>1436.40611849127</v>
       </c>
       <c r="O27" t="n">
-        <v>1770.586261099121</v>
+        <v>1770.58626109912</v>
       </c>
       <c r="P27" t="n">
         <v>2022.368746305032</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.117737403583</v>
+        <v>2139.117737403582</v>
       </c>
       <c r="R27" t="n">
-        <v>2061.118953140705</v>
+        <v>2139.117737403582</v>
       </c>
       <c r="S27" t="n">
-        <v>1895.731754651159</v>
+        <v>2117.277604185817</v>
       </c>
       <c r="T27" t="n">
-        <v>1696.491363368795</v>
+        <v>1973.611735416087</v>
       </c>
       <c r="U27" t="n">
-        <v>1596.722731730801</v>
+        <v>1746.70399912315</v>
       </c>
       <c r="V27" t="n">
-        <v>1506.018553528182</v>
+        <v>1512.452755648751</v>
       </c>
       <c r="W27" t="n">
-        <v>1253.504061861515</v>
+        <v>1259.938263982084</v>
       </c>
       <c r="X27" t="n">
-        <v>1046.977163267093</v>
+        <v>1053.411365387662</v>
       </c>
       <c r="Y27" t="n">
-        <v>984.7957927625238</v>
+        <v>847.6829296113121</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.1742450076188</v>
+        <v>147.1742450076186</v>
       </c>
       <c r="C28" t="n">
-        <v>121.6944891367705</v>
+        <v>121.6944891367703</v>
       </c>
       <c r="D28" t="n">
-        <v>114.7308811615616</v>
+        <v>114.7308811615614</v>
       </c>
       <c r="E28" t="n">
-        <v>109.818730096777</v>
+        <v>109.8187300967769</v>
       </c>
       <c r="F28" t="n">
-        <v>105.7304202071387</v>
+        <v>105.7304202071386</v>
       </c>
       <c r="G28" t="n">
-        <v>79.93040550831518</v>
+        <v>79.9304055083151</v>
       </c>
       <c r="H28" t="n">
-        <v>62.32999863617266</v>
+        <v>62.32999863617262</v>
       </c>
       <c r="I28" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J28" t="n">
         <v>126.9905912707602</v>
       </c>
       <c r="K28" t="n">
-        <v>280.1967962273436</v>
+        <v>139.5063175544717</v>
       </c>
       <c r="L28" t="n">
-        <v>352.0162319931872</v>
+        <v>211.3257533203153</v>
       </c>
       <c r="M28" t="n">
-        <v>462.0873355020804</v>
+        <v>438.3326568026926</v>
       </c>
       <c r="N28" t="n">
-        <v>551.4926105511519</v>
+        <v>527.737931851764</v>
       </c>
       <c r="O28" t="n">
-        <v>759.4267348395082</v>
+        <v>735.6720561401203</v>
       </c>
       <c r="P28" t="n">
-        <v>934.4332876408793</v>
+        <v>853.1434157863235</v>
       </c>
       <c r="Q28" t="n">
-        <v>934.4332876408793</v>
+        <v>934.4332876408788</v>
       </c>
       <c r="R28" t="n">
-        <v>913.5554644404649</v>
+        <v>913.5554644404644</v>
       </c>
       <c r="S28" t="n">
-        <v>836.6531121975494</v>
+        <v>836.653112197549</v>
       </c>
       <c r="T28" t="n">
-        <v>750.5797847031496</v>
+        <v>750.5797847031492</v>
       </c>
       <c r="U28" t="n">
-        <v>605.1981643508545</v>
+        <v>605.1981643508542</v>
       </c>
       <c r="V28" t="n">
-        <v>493.2539659186559</v>
+        <v>493.2539659186556</v>
       </c>
       <c r="W28" t="n">
-        <v>347.8186302940568</v>
+        <v>347.8186302940566</v>
       </c>
       <c r="X28" t="n">
-        <v>262.9410895736056</v>
+        <v>262.9410895736054</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.5298984132968</v>
+        <v>185.5298984132966</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>1523.640936362585</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.49598579705</v>
+        <v>1296.495985797049</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.83625030661</v>
+        <v>1079.836250306609</v>
       </c>
       <c r="E29" t="n">
-        <v>836.3954006740591</v>
+        <v>836.3954006740586</v>
       </c>
       <c r="F29" t="n">
-        <v>568.5345230362022</v>
+        <v>568.5345230362017</v>
       </c>
       <c r="G29" t="n">
-        <v>293.5677610246237</v>
+        <v>293.5677610246232</v>
       </c>
       <c r="H29" t="n">
         <v>100.99742879619</v>
       </c>
       <c r="I29" t="n">
-        <v>57.73363778998431</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9750076231066</v>
+        <v>241.9750076231055</v>
       </c>
       <c r="K29" t="n">
-        <v>570.2135754728922</v>
+        <v>570.2135754728911</v>
       </c>
       <c r="L29" t="n">
-        <v>995.5431210293507</v>
+        <v>995.5431210293495</v>
       </c>
       <c r="M29" t="n">
-        <v>1468.161699544896</v>
+        <v>1468.161699544895</v>
       </c>
       <c r="N29" t="n">
-        <v>1930.634046743771</v>
+        <v>1930.63404674377</v>
       </c>
       <c r="O29" t="n">
-        <v>2329.045667843442</v>
+        <v>2329.045667843441</v>
       </c>
       <c r="P29" t="n">
-        <v>2652.756385820221</v>
+        <v>2652.756385820219</v>
       </c>
       <c r="Q29" t="n">
-        <v>2853.708040521633</v>
+        <v>2853.708040521632</v>
       </c>
       <c r="R29" t="n">
-        <v>2886.681889499216</v>
+        <v>2886.681889499214</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.393615466869</v>
+        <v>2834.393615466868</v>
       </c>
       <c r="T29" t="n">
-        <v>2755.04955166317</v>
+        <v>2755.049551663169</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.621185152042</v>
+        <v>2644.62118515204</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.316511512186</v>
+        <v>2456.316511512185</v>
       </c>
       <c r="W29" t="n">
-        <v>2245.792751530881</v>
+        <v>2245.79275153088</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.732140912591</v>
+        <v>2014.73214091259</v>
       </c>
       <c r="Y29" t="n">
         <v>1767.686204415446</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>895.341509318559</v>
+        <v>768.6129212488977</v>
       </c>
       <c r="C30" t="n">
-        <v>722.5883942403761</v>
+        <v>595.8598061707148</v>
       </c>
       <c r="D30" t="n">
-        <v>575.00008759932</v>
+        <v>448.2714995296587</v>
       </c>
       <c r="E30" t="n">
-        <v>417.3905586021747</v>
+        <v>290.6619705325134</v>
       </c>
       <c r="F30" t="n">
-        <v>272.4347686187916</v>
+        <v>145.7061805491302</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3219054675799</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3219054675799</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="I30" t="n">
-        <v>57.73363778998431</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J30" t="n">
-        <v>91.45429539343729</v>
+        <v>91.45429539343723</v>
       </c>
       <c r="K30" t="n">
         <v>275.6938834173416</v>
       </c>
       <c r="L30" t="n">
-        <v>584.2763530560334</v>
+        <v>584.2763530560333</v>
       </c>
       <c r="M30" t="n">
-        <v>997.1777343043173</v>
+        <v>997.177734304317</v>
       </c>
       <c r="N30" t="n">
         <v>1436.40611849127</v>
       </c>
       <c r="O30" t="n">
-        <v>1770.586261099121</v>
+        <v>1770.58626109912</v>
       </c>
       <c r="P30" t="n">
         <v>2022.368746305032</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.117737403583</v>
+        <v>2139.117737403582</v>
       </c>
       <c r="R30" t="n">
-        <v>2061.118953140705</v>
+        <v>2139.117737403582</v>
       </c>
       <c r="S30" t="n">
-        <v>1956.912061711918</v>
+        <v>2117.277604185817</v>
       </c>
       <c r="T30" t="n">
-        <v>1757.671670429553</v>
+        <v>2061.584278175233</v>
       </c>
       <c r="U30" t="n">
-        <v>1674.310999408397</v>
+        <v>1834.676541882296</v>
       </c>
       <c r="V30" t="n">
-        <v>1440.059755933998</v>
+        <v>1600.425298407897</v>
       </c>
       <c r="W30" t="n">
-        <v>1331.092329539111</v>
+        <v>1347.91080674123</v>
       </c>
       <c r="X30" t="n">
-        <v>1124.565430944689</v>
+        <v>1141.383908146808</v>
       </c>
       <c r="Y30" t="n">
-        <v>1062.384060440119</v>
+        <v>935.6554723704581</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.1742450076188</v>
+        <v>147.1742450076186</v>
       </c>
       <c r="C31" t="n">
-        <v>121.6944891367705</v>
+        <v>121.6944891367703</v>
       </c>
       <c r="D31" t="n">
-        <v>114.7308811615616</v>
+        <v>114.7308811615614</v>
       </c>
       <c r="E31" t="n">
-        <v>109.8187300967771</v>
+        <v>109.8187300967769</v>
       </c>
       <c r="F31" t="n">
-        <v>105.7304202071387</v>
+        <v>105.7304202071386</v>
       </c>
       <c r="G31" t="n">
-        <v>79.93040550831519</v>
+        <v>79.93040550831512</v>
       </c>
       <c r="H31" t="n">
-        <v>62.32999863617268</v>
+        <v>62.32999863617263</v>
       </c>
       <c r="I31" t="n">
-        <v>57.73363778998431</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J31" t="n">
         <v>126.9905912707602</v>
@@ -6631,40 +6631,40 @@
         <v>719.7136141484362</v>
       </c>
       <c r="N31" t="n">
-        <v>809.1188891975078</v>
+        <v>832.8735678968952</v>
       </c>
       <c r="O31" t="n">
-        <v>876.3625348129922</v>
+        <v>900.1172135123796</v>
       </c>
       <c r="P31" t="n">
-        <v>910.6786089414913</v>
+        <v>934.4332876408788</v>
       </c>
       <c r="Q31" t="n">
-        <v>934.4332876408793</v>
+        <v>934.4332876408788</v>
       </c>
       <c r="R31" t="n">
-        <v>913.5554644404649</v>
+        <v>913.5554644404644</v>
       </c>
       <c r="S31" t="n">
-        <v>836.6531121975494</v>
+        <v>836.653112197549</v>
       </c>
       <c r="T31" t="n">
-        <v>750.5797847031496</v>
+        <v>750.5797847031492</v>
       </c>
       <c r="U31" t="n">
-        <v>605.1981643508545</v>
+        <v>605.1981643508542</v>
       </c>
       <c r="V31" t="n">
-        <v>493.2539659186559</v>
+        <v>493.2539659186556</v>
       </c>
       <c r="W31" t="n">
-        <v>347.8186302940568</v>
+        <v>347.8186302940566</v>
       </c>
       <c r="X31" t="n">
-        <v>262.9410895736056</v>
+        <v>262.9410895736054</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.5298984132968</v>
+        <v>185.5298984132966</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1523.640936362585</v>
+        <v>1523.640936362583</v>
       </c>
       <c r="C32" t="n">
-        <v>1296.495985797049</v>
+        <v>1296.495985797048</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.836250306609</v>
+        <v>1079.836250306608</v>
       </c>
       <c r="E32" t="n">
-        <v>836.3954006740584</v>
+        <v>836.3954006740572</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5345230362013</v>
+        <v>568.5345230362004</v>
       </c>
       <c r="G32" t="n">
-        <v>293.5677610246233</v>
+        <v>293.5677610246225</v>
       </c>
       <c r="H32" t="n">
-        <v>100.9974287961901</v>
+        <v>100.99742879619</v>
       </c>
       <c r="I32" t="n">
-        <v>57.73363778998431</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J32" t="n">
         <v>241.9750076231055</v>
       </c>
       <c r="K32" t="n">
-        <v>570.213575472891</v>
+        <v>570.2135754728909</v>
       </c>
       <c r="L32" t="n">
-        <v>995.5431210293492</v>
+        <v>995.5431210293491</v>
       </c>
       <c r="M32" t="n">
         <v>1468.161699544895</v>
@@ -6713,37 +6713,37 @@
         <v>1930.63404674377</v>
       </c>
       <c r="O32" t="n">
-        <v>2329.04566784344</v>
+        <v>2329.045667843441</v>
       </c>
       <c r="P32" t="n">
         <v>2652.756385820219</v>
       </c>
       <c r="Q32" t="n">
-        <v>2853.708040521631</v>
+        <v>2853.708040521632</v>
       </c>
       <c r="R32" t="n">
-        <v>2886.681889499216</v>
+        <v>2886.681889499214</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.393615466869</v>
+        <v>2834.393615466868</v>
       </c>
       <c r="T32" t="n">
-        <v>2755.04955166317</v>
+        <v>2755.049551663169</v>
       </c>
       <c r="U32" t="n">
-        <v>2644.621185152041</v>
+        <v>2644.62118515204</v>
       </c>
       <c r="V32" t="n">
-        <v>2456.316511512186</v>
+        <v>2456.316511512184</v>
       </c>
       <c r="W32" t="n">
-        <v>2245.792751530881</v>
+        <v>2245.792751530879</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.732140912591</v>
+        <v>2014.732140912589</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.686204415446</v>
+        <v>1767.686204415445</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>680.6403784897517</v>
+        <v>768.6129212488972</v>
       </c>
       <c r="C33" t="n">
-        <v>507.8872634115689</v>
+        <v>595.8598061707144</v>
       </c>
       <c r="D33" t="n">
-        <v>360.2989567705127</v>
+        <v>448.2714995296582</v>
       </c>
       <c r="E33" t="n">
-        <v>202.6894277733675</v>
+        <v>290.6619705325129</v>
       </c>
       <c r="F33" t="n">
-        <v>57.73363778998431</v>
+        <v>145.7061805491298</v>
       </c>
       <c r="G33" t="n">
-        <v>57.73363778998431</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="H33" t="n">
-        <v>57.73363778998431</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="I33" t="n">
-        <v>57.73363778998431</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J33" t="n">
-        <v>91.45429539343729</v>
+        <v>91.45429539343723</v>
       </c>
       <c r="K33" t="n">
         <v>275.6938834173416</v>
       </c>
       <c r="L33" t="n">
-        <v>584.2763530560334</v>
+        <v>584.2763530560333</v>
       </c>
       <c r="M33" t="n">
-        <v>997.1777343043173</v>
+        <v>997.177734304317</v>
       </c>
       <c r="N33" t="n">
         <v>1436.40611849127</v>
       </c>
       <c r="O33" t="n">
-        <v>1770.586261099121</v>
+        <v>1770.58626109912</v>
       </c>
       <c r="P33" t="n">
         <v>2022.368746305032</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.117737403583</v>
+        <v>2139.117737403582</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.117737403583</v>
+        <v>2139.117737403582</v>
       </c>
       <c r="S33" t="n">
-        <v>1973.730538914037</v>
+        <v>2117.277604185816</v>
       </c>
       <c r="T33" t="n">
-        <v>1918.037212903453</v>
+        <v>2061.584278175233</v>
       </c>
       <c r="U33" t="n">
-        <v>1691.129476610516</v>
+        <v>1834.676541882296</v>
       </c>
       <c r="V33" t="n">
-        <v>1456.878233136116</v>
+        <v>1600.425298407896</v>
       </c>
       <c r="W33" t="n">
-        <v>1204.36374146945</v>
+        <v>1347.91080674123</v>
       </c>
       <c r="X33" t="n">
-        <v>997.8368428750272</v>
+        <v>1141.383908146807</v>
       </c>
       <c r="Y33" t="n">
-        <v>792.1084070986776</v>
+        <v>935.6554723704577</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.1742450076194</v>
+        <v>147.1742450076188</v>
       </c>
       <c r="C34" t="n">
-        <v>121.694489136771</v>
+        <v>121.6944891367705</v>
       </c>
       <c r="D34" t="n">
-        <v>114.730881161562</v>
+        <v>114.7308811615616</v>
       </c>
       <c r="E34" t="n">
-        <v>109.8187300967774</v>
+        <v>109.818730096777</v>
       </c>
       <c r="F34" t="n">
-        <v>105.7304202071389</v>
+        <v>105.7304202071387</v>
       </c>
       <c r="G34" t="n">
-        <v>79.93040550831536</v>
+        <v>79.93040550831518</v>
       </c>
       <c r="H34" t="n">
-        <v>62.32999863617276</v>
+        <v>62.32999863617265</v>
       </c>
       <c r="I34" t="n">
-        <v>57.73363778998431</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J34" t="n">
-        <v>69.4553981155948</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="K34" t="n">
-        <v>81.97112439930629</v>
+        <v>70.24936407369576</v>
       </c>
       <c r="L34" t="n">
-        <v>153.7905601651499</v>
+        <v>142.0687998395393</v>
       </c>
       <c r="M34" t="n">
-        <v>240.1069849746552</v>
+        <v>369.0757033219165</v>
       </c>
       <c r="N34" t="n">
-        <v>470.2027386965984</v>
+        <v>599.1714570438598</v>
       </c>
       <c r="O34" t="n">
-        <v>678.1368629849546</v>
+        <v>807.1055813322162</v>
       </c>
       <c r="P34" t="n">
-        <v>853.1434157863256</v>
+        <v>853.143415786324</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.4332876408807</v>
+        <v>934.4332876408793</v>
       </c>
       <c r="R34" t="n">
-        <v>913.5554644404663</v>
+        <v>913.5554644404649</v>
       </c>
       <c r="S34" t="n">
-        <v>836.6531121975507</v>
+        <v>836.6531121975494</v>
       </c>
       <c r="T34" t="n">
-        <v>750.5797847031508</v>
+        <v>750.5797847031496</v>
       </c>
       <c r="U34" t="n">
-        <v>605.1981643508557</v>
+        <v>605.1981643508545</v>
       </c>
       <c r="V34" t="n">
-        <v>493.2539659186569</v>
+        <v>493.2539659186559</v>
       </c>
       <c r="W34" t="n">
-        <v>347.8186302940578</v>
+        <v>347.8186302940568</v>
       </c>
       <c r="X34" t="n">
-        <v>262.9410895736065</v>
+        <v>262.9410895736056</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.5298984132976</v>
+        <v>185.5298984132968</v>
       </c>
     </row>
     <row r="35">
@@ -6932,40 +6932,40 @@
         <v>34.73312973923653</v>
       </c>
       <c r="I35" t="n">
-        <v>34.73312973923653</v>
+        <v>66.20591361315428</v>
       </c>
       <c r="J35" t="n">
-        <v>78.28402089948585</v>
+        <v>109.7568047734036</v>
       </c>
       <c r="K35" t="n">
-        <v>265.8321100763995</v>
+        <v>297.3048939503173</v>
       </c>
       <c r="L35" t="n">
-        <v>581.9439608339034</v>
+        <v>581.9439608339037</v>
       </c>
       <c r="M35" t="n">
-        <v>913.8720606765773</v>
+        <v>913.8720606765777</v>
       </c>
       <c r="N35" t="n">
-        <v>1235.65392920258</v>
+        <v>1235.653929202581</v>
       </c>
       <c r="O35" t="n">
-        <v>1493.375071629379</v>
+        <v>1493.37507162938</v>
       </c>
       <c r="P35" t="n">
-        <v>1676.395310933286</v>
+        <v>1676.395310933287</v>
       </c>
       <c r="Q35" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="R35" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="S35" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="T35" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="U35" t="n">
         <v>1705.572184254397</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>686.4509858690622</v>
+        <v>500.0303414418586</v>
       </c>
       <c r="C36" t="n">
-        <v>513.6978707908793</v>
+        <v>327.2772263636758</v>
       </c>
       <c r="D36" t="n">
-        <v>366.1095641498232</v>
+        <v>179.6889197226197</v>
       </c>
       <c r="E36" t="n">
-        <v>366.1095641498232</v>
+        <v>179.6889197226197</v>
       </c>
       <c r="F36" t="n">
-        <v>221.1537741664401</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="G36" t="n">
-        <v>221.1537741664401</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="H36" t="n">
-        <v>112.3213974168321</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="I36" t="n">
         <v>34.73312973923653</v>
       </c>
       <c r="J36" t="n">
-        <v>34.73312973923653</v>
+        <v>68.45378734268948</v>
       </c>
       <c r="K36" t="n">
-        <v>218.9727177631408</v>
+        <v>252.6933753665938</v>
       </c>
       <c r="L36" t="n">
-        <v>525.4011488860284</v>
+        <v>561.2758450052855</v>
       </c>
       <c r="M36" t="n">
-        <v>938.3025301343123</v>
+        <v>974.1772262535694</v>
       </c>
       <c r="N36" t="n">
-        <v>1368.125010657364</v>
+        <v>1402.476344353976</v>
       </c>
       <c r="O36" t="n">
-        <v>1368.125010657364</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="P36" t="n">
-        <v>1619.907495863276</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="Q36" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="R36" t="n">
-        <v>1658.657702698949</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="S36" t="n">
-        <v>1658.657702698949</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="T36" t="n">
-        <v>1658.657702698949</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="U36" t="n">
-        <v>1431.749966406012</v>
+        <v>1566.093962075257</v>
       </c>
       <c r="V36" t="n">
-        <v>1197.498722931613</v>
+        <v>1331.842718600858</v>
       </c>
       <c r="W36" t="n">
-        <v>944.9842312649463</v>
+        <v>1079.328226934191</v>
       </c>
       <c r="X36" t="n">
-        <v>853.4935369906226</v>
+        <v>872.8013283397687</v>
       </c>
       <c r="Y36" t="n">
-        <v>853.4935369906226</v>
+        <v>667.0728925634191</v>
       </c>
     </row>
     <row r="37">
@@ -7096,40 +7096,40 @@
         <v>34.73312973923653</v>
       </c>
       <c r="K37" t="n">
-        <v>47.24885602294801</v>
+        <v>47.248856022948</v>
       </c>
       <c r="L37" t="n">
         <v>119.0682917887916</v>
       </c>
       <c r="M37" t="n">
-        <v>205.384716598297</v>
+        <v>205.3847165982969</v>
       </c>
       <c r="N37" t="n">
-        <v>294.7899916473684</v>
+        <v>294.7899916473683</v>
       </c>
       <c r="O37" t="n">
-        <v>362.0336372628528</v>
+        <v>362.0336372628527</v>
       </c>
       <c r="P37" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="Q37" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="R37" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="S37" t="n">
-        <v>396.349711391352</v>
+        <v>211.7248333446846</v>
       </c>
       <c r="T37" t="n">
-        <v>389.6204477006514</v>
+        <v>204.9955696539839</v>
       </c>
       <c r="U37" t="n">
-        <v>323.5828911520555</v>
+        <v>138.958013105388</v>
       </c>
       <c r="V37" t="n">
-        <v>290.982756523556</v>
+        <v>106.3578784768885</v>
       </c>
       <c r="W37" t="n">
         <v>40.26660665598866</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>981.3122544834364</v>
+        <v>981.3122544834368</v>
       </c>
       <c r="C38" t="n">
-        <v>833.5113677216</v>
+        <v>833.5113677216004</v>
       </c>
       <c r="D38" t="n">
-        <v>696.1956960348589</v>
+        <v>696.1956960348593</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0989102060075</v>
+        <v>532.098910206008</v>
       </c>
       <c r="F38" t="n">
-        <v>343.5820963718497</v>
+        <v>343.5820963718502</v>
       </c>
       <c r="G38" t="n">
         <v>147.9593981639706</v>
@@ -7169,55 +7169,55 @@
         <v>34.73312973923653</v>
       </c>
       <c r="I38" t="n">
-        <v>34.73312973923653</v>
+        <v>39.68853405825167</v>
       </c>
       <c r="J38" t="n">
-        <v>78.28402089948585</v>
+        <v>83.23942521850097</v>
       </c>
       <c r="K38" t="n">
-        <v>265.8321100763995</v>
+        <v>270.7875143954147</v>
       </c>
       <c r="L38" t="n">
-        <v>550.471176959986</v>
+        <v>555.4265812790011</v>
       </c>
       <c r="M38" t="n">
-        <v>882.39927680266</v>
+        <v>887.3546811216751</v>
       </c>
       <c r="N38" t="n">
-        <v>1204.181145328663</v>
+        <v>1209.136549647678</v>
       </c>
       <c r="O38" t="n">
-        <v>1461.902287755462</v>
+        <v>1466.857692074477</v>
       </c>
       <c r="P38" t="n">
-        <v>1676.395310933286</v>
+        <v>1649.877931378384</v>
       </c>
       <c r="Q38" t="n">
-        <v>1736.656486961826</v>
+        <v>1710.139107406924</v>
       </c>
       <c r="R38" t="n">
-        <v>1736.656486961826</v>
+        <v>1710.139107406924</v>
       </c>
       <c r="S38" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="T38" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="U38" t="n">
         <v>1705.572184254397</v>
       </c>
       <c r="V38" t="n">
-        <v>1596.61157441824</v>
+        <v>1596.611574418241</v>
       </c>
       <c r="W38" t="n">
-        <v>1465.431878240634</v>
+        <v>1465.431878240635</v>
       </c>
       <c r="X38" t="n">
         <v>1313.715331426044</v>
       </c>
       <c r="Y38" t="n">
-        <v>1146.013458732598</v>
+        <v>1146.013458732599</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>649.7969436068324</v>
+        <v>981.1733780174193</v>
       </c>
       <c r="C39" t="n">
-        <v>477.0438285286496</v>
+        <v>808.4202629392364</v>
       </c>
       <c r="D39" t="n">
-        <v>329.4555218875935</v>
+        <v>660.8319562981802</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8459928904482</v>
+        <v>503.2224273010349</v>
       </c>
       <c r="F39" t="n">
-        <v>171.8459928904482</v>
+        <v>358.2666373176518</v>
       </c>
       <c r="G39" t="n">
-        <v>34.73312973923653</v>
+        <v>221.1537741664401</v>
       </c>
       <c r="H39" t="n">
-        <v>34.73312973923653</v>
+        <v>112.3213974168321</v>
       </c>
       <c r="I39" t="n">
         <v>34.73312973923653</v>
@@ -7254,49 +7254,49 @@
         <v>34.73312973923653</v>
       </c>
       <c r="K39" t="n">
-        <v>218.9727177631408</v>
+        <v>134.4210218453981</v>
       </c>
       <c r="L39" t="n">
-        <v>527.5551874018327</v>
+        <v>443.0034914840898</v>
       </c>
       <c r="M39" t="n">
-        <v>940.4565686501165</v>
+        <v>855.9048727323736</v>
       </c>
       <c r="N39" t="n">
-        <v>1370.279049173168</v>
+        <v>1285.727353255426</v>
       </c>
       <c r="O39" t="n">
-        <v>1370.279049173168</v>
+        <v>1619.907495863276</v>
       </c>
       <c r="P39" t="n">
         <v>1619.907495863276</v>
       </c>
       <c r="Q39" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="R39" t="n">
-        <v>1696.226433664573</v>
+        <v>1658.657702698949</v>
       </c>
       <c r="S39" t="n">
-        <v>1696.226433664573</v>
+        <v>1493.270504209403</v>
       </c>
       <c r="T39" t="n">
-        <v>1496.986042382209</v>
+        <v>1294.030112927039</v>
       </c>
       <c r="U39" t="n">
-        <v>1492.969435164752</v>
+        <v>1290.013505709582</v>
       </c>
       <c r="V39" t="n">
-        <v>1258.718191690352</v>
+        <v>1233.687869684086</v>
       </c>
       <c r="W39" t="n">
-        <v>1229.094829099165</v>
+        <v>981.1733780174193</v>
       </c>
       <c r="X39" t="n">
-        <v>1022.567930504742</v>
+        <v>981.1733780174193</v>
       </c>
       <c r="Y39" t="n">
-        <v>816.8394947283929</v>
+        <v>981.1733780174193</v>
       </c>
     </row>
     <row r="40">
@@ -7333,49 +7333,49 @@
         <v>34.73312973923653</v>
       </c>
       <c r="K40" t="n">
-        <v>47.24885602294801</v>
+        <v>47.248856022948</v>
       </c>
       <c r="L40" t="n">
         <v>119.0682917887916</v>
       </c>
       <c r="M40" t="n">
-        <v>205.384716598297</v>
+        <v>205.3847165982969</v>
       </c>
       <c r="N40" t="n">
-        <v>294.7899916473684</v>
+        <v>294.7899916473683</v>
       </c>
       <c r="O40" t="n">
-        <v>362.0336372628528</v>
+        <v>362.0336372628527</v>
       </c>
       <c r="P40" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="Q40" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="R40" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="S40" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913518</v>
       </c>
       <c r="T40" t="n">
-        <v>204.9955696539839</v>
+        <v>389.6204477006512</v>
       </c>
       <c r="U40" t="n">
-        <v>138.958013105388</v>
+        <v>323.5828911520553</v>
       </c>
       <c r="V40" t="n">
-        <v>106.3578784768885</v>
+        <v>290.9827565235558</v>
       </c>
       <c r="W40" t="n">
-        <v>40.26660665598866</v>
+        <v>224.8914847026559</v>
       </c>
       <c r="X40" t="n">
-        <v>34.73312973923653</v>
+        <v>219.3580077859038</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.73312973923653</v>
+        <v>216.635848416695</v>
       </c>
     </row>
     <row r="41">
@@ -7388,55 +7388,55 @@
         <v>1150.825059785584</v>
       </c>
       <c r="C41" t="n">
-        <v>975.968383252395</v>
+        <v>975.9683832523951</v>
       </c>
       <c r="D41" t="n">
         <v>811.5969217943016</v>
       </c>
       <c r="E41" t="n">
-        <v>620.4443461940978</v>
+        <v>620.4443461940979</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8717425885875</v>
+        <v>404.8717425885876</v>
       </c>
       <c r="G41" t="n">
         <v>182.1932546093554</v>
       </c>
       <c r="H41" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="I41" t="n">
-        <v>41.91119641326883</v>
+        <v>50.75609222718958</v>
       </c>
       <c r="J41" t="n">
-        <v>85.46208757351815</v>
+        <v>94.30698338743888</v>
       </c>
       <c r="K41" t="n">
-        <v>273.0101767504319</v>
+        <v>281.8550725643526</v>
       </c>
       <c r="L41" t="n">
-        <v>557.6492436340184</v>
+        <v>566.494139447939</v>
       </c>
       <c r="M41" t="n">
-        <v>1076.30029924822</v>
+        <v>898.4222392906129</v>
       </c>
       <c r="N41" t="n">
-        <v>1398.082167774223</v>
+        <v>1220.204107816616</v>
       </c>
       <c r="O41" t="n">
-        <v>1768.056818974308</v>
+        <v>1477.925250243415</v>
       </c>
       <c r="P41" t="n">
-        <v>1951.077058278215</v>
+        <v>1759.138842226242</v>
       </c>
       <c r="Q41" t="n">
-        <v>2011.338234306756</v>
+        <v>2011.338234306757</v>
       </c>
       <c r="R41" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663443</v>
       </c>
       <c r="S41" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663443</v>
       </c>
       <c r="T41" t="n">
         <v>2068.504030892089</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>561.8101628802774</v>
+        <v>628.6945238792612</v>
       </c>
       <c r="C42" t="n">
-        <v>561.8101628802774</v>
+        <v>455.9414088010783</v>
       </c>
       <c r="D42" t="n">
-        <v>414.2218562392213</v>
+        <v>308.3531021600222</v>
       </c>
       <c r="E42" t="n">
-        <v>256.612327242076</v>
+        <v>150.7435731628769</v>
       </c>
       <c r="F42" t="n">
-        <v>256.612327242076</v>
+        <v>150.7435731628769</v>
       </c>
       <c r="G42" t="n">
-        <v>119.4994640908644</v>
+        <v>150.7435731628769</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4994640908644</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="I42" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="J42" t="n">
         <v>75.6318540167218</v>
@@ -7494,46 +7494,46 @@
         <v>259.8714420406261</v>
       </c>
       <c r="L42" t="n">
-        <v>540.7184363158921</v>
+        <v>568.4539116793178</v>
       </c>
       <c r="M42" t="n">
-        <v>953.6198175641759</v>
+        <v>981.3552929276016</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.848201751128</v>
+        <v>1420.583677114554</v>
       </c>
       <c r="O42" t="n">
-        <v>1727.028344358979</v>
+        <v>1754.763819722405</v>
       </c>
       <c r="P42" t="n">
-        <v>1978.810829564891</v>
+        <v>1978.810829564892</v>
       </c>
       <c r="Q42" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663443</v>
       </c>
       <c r="R42" t="n">
-        <v>2017.561036400564</v>
+        <v>2095.559820663443</v>
       </c>
       <c r="S42" t="n">
-        <v>1852.173837911018</v>
+        <v>2095.559820663443</v>
       </c>
       <c r="T42" t="n">
-        <v>1652.933446628654</v>
+        <v>1896.319429381078</v>
       </c>
       <c r="U42" t="n">
-        <v>1426.025710335717</v>
+        <v>1694.75814451266</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.774466861317</v>
+        <v>1460.50690103826</v>
       </c>
       <c r="W42" t="n">
-        <v>974.0654972510495</v>
+        <v>1207.992409371594</v>
       </c>
       <c r="X42" t="n">
-        <v>767.538598656627</v>
+        <v>1001.465510777171</v>
       </c>
       <c r="Y42" t="n">
-        <v>561.8101628802774</v>
+        <v>795.7370750008216</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="C43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="D43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="E43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="F43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="G43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="H43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="I43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="J43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="K43" t="n">
-        <v>54.42692269698031</v>
+        <v>54.42692269698033</v>
       </c>
       <c r="L43" t="n">
-        <v>126.2463584628239</v>
+        <v>126.6374246114502</v>
       </c>
       <c r="M43" t="n">
-        <v>212.5627832723292</v>
+        <v>212.9538494209555</v>
       </c>
       <c r="N43" t="n">
-        <v>301.9680583214007</v>
+        <v>302.359124470027</v>
       </c>
       <c r="O43" t="n">
-        <v>369.2117039368851</v>
+        <v>369.6027700855113</v>
       </c>
       <c r="P43" t="n">
-        <v>403.9188442140103</v>
+        <v>403.9188442140105</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.9188442140103</v>
+        <v>403.9188442140105</v>
       </c>
       <c r="R43" t="n">
-        <v>403.9188442140103</v>
+        <v>403.9188442140105</v>
       </c>
       <c r="S43" t="n">
-        <v>379.3047660034415</v>
+        <v>379.3047660034417</v>
       </c>
       <c r="T43" t="n">
-        <v>345.5197125413883</v>
+        <v>345.5197125413885</v>
       </c>
       <c r="U43" t="n">
-        <v>252.42636622144</v>
+        <v>252.4263662214401</v>
       </c>
       <c r="V43" t="n">
-        <v>192.770441821588</v>
+        <v>192.7704418215881</v>
       </c>
       <c r="W43" t="n">
-        <v>99.6233802293356</v>
+        <v>99.62338022933568</v>
       </c>
       <c r="X43" t="n">
-        <v>67.03411354123098</v>
+        <v>67.03411354123104</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1150.825059785584</v>
+        <v>1150.825059785585</v>
       </c>
       <c r="C44" t="n">
-        <v>975.9683832523955</v>
+        <v>975.9683832523961</v>
       </c>
       <c r="D44" t="n">
-        <v>811.5969217943018</v>
+        <v>811.5969217943023</v>
       </c>
       <c r="E44" t="n">
-        <v>620.4443461940978</v>
+        <v>620.4443461940982</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8717425885875</v>
+        <v>404.8717425885879</v>
       </c>
       <c r="G44" t="n">
         <v>182.1932546093554</v>
@@ -7643,55 +7643,55 @@
         <v>41.91119641326883</v>
       </c>
       <c r="I44" t="n">
-        <v>41.91119641326883</v>
+        <v>50.75609222718955</v>
       </c>
       <c r="J44" t="n">
-        <v>85.46208757351815</v>
+        <v>94.30698338743886</v>
       </c>
       <c r="K44" t="n">
-        <v>273.0101767504319</v>
+        <v>281.8550725643526</v>
       </c>
       <c r="L44" t="n">
-        <v>557.6492436340184</v>
+        <v>566.494139447939</v>
       </c>
       <c r="M44" t="n">
-        <v>889.5773434766924</v>
+        <v>898.4222392906129</v>
       </c>
       <c r="N44" t="n">
-        <v>1211.359212002695</v>
+        <v>1220.204107816616</v>
       </c>
       <c r="O44" t="n">
-        <v>1661.018570481469</v>
+        <v>1669.863466295389</v>
       </c>
       <c r="P44" t="n">
-        <v>1844.038809785376</v>
+        <v>1951.077058278216</v>
       </c>
       <c r="Q44" t="n">
-        <v>2095.559820663441</v>
+        <v>2011.338234306756</v>
       </c>
       <c r="R44" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="S44" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="T44" t="n">
         <v>2068.504030892089</v>
       </c>
       <c r="U44" t="n">
-        <v>2010.363938413307</v>
+        <v>2010.363938413308</v>
       </c>
       <c r="V44" t="n">
-        <v>1874.347538805798</v>
+        <v>1874.347538805799</v>
       </c>
       <c r="W44" t="n">
-        <v>1716.11205285684</v>
+        <v>1716.112052856841</v>
       </c>
       <c r="X44" t="n">
         <v>1537.339716270897</v>
       </c>
       <c r="Y44" t="n">
-        <v>1342.582053806099</v>
+        <v>1342.5820538061</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>484.221895202682</v>
+        <v>706.2827915568566</v>
       </c>
       <c r="C45" t="n">
-        <v>484.221895202682</v>
+        <v>533.5296764786738</v>
       </c>
       <c r="D45" t="n">
-        <v>336.6335885616259</v>
+        <v>385.9413698376177</v>
       </c>
       <c r="E45" t="n">
-        <v>179.0240595644805</v>
+        <v>228.3318408404724</v>
       </c>
       <c r="F45" t="n">
-        <v>179.0240595644805</v>
+        <v>228.3318408404724</v>
       </c>
       <c r="G45" t="n">
-        <v>41.91119641326883</v>
+        <v>228.3318408404724</v>
       </c>
       <c r="H45" t="n">
-        <v>41.91119641326883</v>
+        <v>119.4994640908644</v>
       </c>
       <c r="I45" t="n">
         <v>41.91119641326883</v>
       </c>
       <c r="J45" t="n">
-        <v>75.6318540167218</v>
+        <v>75.63185401672179</v>
       </c>
       <c r="K45" t="n">
         <v>259.8714420406261</v>
@@ -7734,43 +7734,43 @@
         <v>568.4539116793178</v>
       </c>
       <c r="M45" t="n">
-        <v>981.3552929276017</v>
+        <v>981.3552929276016</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.848201751128</v>
+        <v>1420.583677114554</v>
       </c>
       <c r="O45" t="n">
-        <v>1727.028344358979</v>
+        <v>1754.763819722405</v>
       </c>
       <c r="P45" t="n">
-        <v>1978.810829564891</v>
+        <v>2006.546304928317</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="R45" t="n">
-        <v>2017.561036400564</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="S45" t="n">
-        <v>1852.173837911018</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="T45" t="n">
-        <v>1652.933446628654</v>
+        <v>1999.254148483192</v>
       </c>
       <c r="U45" t="n">
-        <v>1426.025710335717</v>
+        <v>1772.346412190255</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.774466861317</v>
+        <v>1538.095168715856</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.519780695015</v>
+        <v>1285.580677049189</v>
       </c>
       <c r="X45" t="n">
-        <v>856.9928821005921</v>
+        <v>1079.053778454767</v>
       </c>
       <c r="Y45" t="n">
-        <v>651.2644463242425</v>
+        <v>873.3253426784171</v>
       </c>
     </row>
     <row r="46">
@@ -7807,46 +7807,46 @@
         <v>41.91119641326883</v>
       </c>
       <c r="K46" t="n">
-        <v>54.42692269698031</v>
+        <v>54.81798884560666</v>
       </c>
       <c r="L46" t="n">
-        <v>126.2463584628239</v>
+        <v>126.6374246114502</v>
       </c>
       <c r="M46" t="n">
-        <v>212.5627832723292</v>
+        <v>212.9538494209555</v>
       </c>
       <c r="N46" t="n">
-        <v>301.9680583214007</v>
+        <v>302.359124470027</v>
       </c>
       <c r="O46" t="n">
-        <v>369.6027700855112</v>
+        <v>369.6027700855113</v>
       </c>
       <c r="P46" t="n">
-        <v>403.9188442140103</v>
+        <v>403.9188442140105</v>
       </c>
       <c r="Q46" t="n">
-        <v>403.9188442140103</v>
+        <v>403.9188442140105</v>
       </c>
       <c r="R46" t="n">
-        <v>403.9188442140103</v>
+        <v>403.9188442140105</v>
       </c>
       <c r="S46" t="n">
-        <v>379.3047660034415</v>
+        <v>379.3047660034417</v>
       </c>
       <c r="T46" t="n">
-        <v>345.5197125413883</v>
+        <v>345.5197125413885</v>
       </c>
       <c r="U46" t="n">
-        <v>252.42636622144</v>
+        <v>252.4263662214401</v>
       </c>
       <c r="V46" t="n">
-        <v>192.770441821588</v>
+        <v>192.7704418215881</v>
       </c>
       <c r="W46" t="n">
-        <v>99.6233802293356</v>
+        <v>99.62338022933567</v>
       </c>
       <c r="X46" t="n">
-        <v>67.03411354123098</v>
+        <v>67.03411354123102</v>
       </c>
       <c r="Y46" t="n">
         <v>41.91119641326883</v>
@@ -8696,7 +8696,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
-        <v>467.4940748325458</v>
+        <v>467.4940748325459</v>
       </c>
       <c r="N11" t="n">
         <v>454.8408013884635</v>
@@ -8775,10 +8775,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>484.3332662999999</v>
+        <v>86.77858052365458</v>
       </c>
       <c r="N12" t="n">
-        <v>83.43169935272424</v>
+        <v>480.9863851290694</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -9003,10 +9003,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07340644750704</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954209</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9015,16 +9015,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>420.9873989566138</v>
+        <v>480.9863851290694</v>
       </c>
       <c r="O15" t="n">
-        <v>72.06111244390908</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>271.7367317161664</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5521054083635</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789569</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9240,7 +9240,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07340644750704</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9249,10 +9249,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>86.77858052365465</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>480.9863851290695</v>
+        <v>235.421243496162</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9261,7 +9261,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5521054083635</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9486,16 +9486,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>484.3332662999999</v>
+        <v>86.77858052365465</v>
       </c>
       <c r="N21" t="n">
-        <v>337.7574419849584</v>
+        <v>480.9863851290695</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>76.87553675330048</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
         <v>218.4803792452831</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789564</v>
       </c>
       <c r="K23" t="n">
         <v>337.1112290740114</v>
@@ -9653,7 +9653,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P23" t="n">
-        <v>334.6706564983414</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q23" t="n">
         <v>220.8075902863009</v>
@@ -9714,7 +9714,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>97.07340644750703</v>
+        <v>97.07340644750704</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9723,19 +9723,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>484.3332662999999</v>
+        <v>238.7681246670921</v>
       </c>
       <c r="N24" t="n">
         <v>480.9863851290694</v>
       </c>
       <c r="O24" t="n">
-        <v>300.4491392102054</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>76.87553675330048</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5521054083635</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,28 +10662,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>97.07340644750703</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>383.4981626349872</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>489.015156525477</v>
+        <v>487.4764066036128</v>
       </c>
       <c r="O36" t="n">
-        <v>72.06111244390908</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>76.87553675330051</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5521054083635</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,10 +10899,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>97.07340644750703</v>
+        <v>97.07340644750704</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>189.6380930408164</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10914,10 +10914,10 @@
         <v>489.015156525477</v>
       </c>
       <c r="O39" t="n">
-        <v>72.06111244390908</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>329.0254829049244</v>
+        <v>76.87553675330051</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11142,7 +11142,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
-        <v>357.6583274353695</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
         <v>484.3332662999999</v>
@@ -11154,7 +11154,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>331.2012793855346</v>
+        <v>303.1856477053082</v>
       </c>
       <c r="Q42" t="n">
         <v>218.4803792452831</v>
@@ -11385,7 +11385,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>470.5004376370676</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>190.4647475650556</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.65593342214355</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>261.0954837478052</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>285.2713114730586</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>214.455227902049</v>
       </c>
       <c r="H11" t="n">
-        <v>210.7336715177292</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.92019570772393</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.85443390360348</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.63966577724247</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.4131254575978</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.5106695150371</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.5075649930724</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.8390471236872</v>
       </c>
       <c r="Y11" t="n">
         <v>264.6645197437536</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>4.128284212118817</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4.128284212118907</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>244.9625436714605</v>
+        <v>244.9625436714604</v>
       </c>
       <c r="D14" t="n">
         <v>234.5821807471162</v>
       </c>
       <c r="E14" t="n">
-        <v>261.0954837478052</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>285.2713114730586</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>211.6031495934887</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>210.7336715177292</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.92019570772393</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.85443390360346</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.63966577724246</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.4131254575978</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>166.6349589751122</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.5075649930724</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.128284212119638</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4.12828421211902</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40607.81888778703</v>
+        <v>40607.81888778704</v>
       </c>
       <c r="C2" t="n">
-        <v>40607.81888778703</v>
+        <v>40607.81888778702</v>
       </c>
       <c r="D2" t="n">
-        <v>40607.81888778703</v>
+        <v>40607.81888778701</v>
       </c>
       <c r="E2" t="n">
-        <v>34926.98809350473</v>
+        <v>34926.98809350474</v>
       </c>
       <c r="F2" t="n">
-        <v>34926.98809350469</v>
+        <v>34926.98809350474</v>
       </c>
       <c r="G2" t="n">
         <v>40695.97043074681</v>
       </c>
       <c r="H2" t="n">
-        <v>40695.97043074682</v>
+        <v>40695.97043074681</v>
       </c>
       <c r="I2" t="n">
         <v>40695.97043074681</v>
       </c>
       <c r="J2" t="n">
-        <v>40695.9704307468</v>
+        <v>40695.97043074683</v>
       </c>
       <c r="K2" t="n">
-        <v>40695.97043074678</v>
+        <v>40695.97043074677</v>
       </c>
       <c r="L2" t="n">
-        <v>40695.97043074685</v>
+        <v>40695.97043074686</v>
       </c>
       <c r="M2" t="n">
-        <v>40695.97043074684</v>
+        <v>40695.97043074686</v>
       </c>
       <c r="N2" t="n">
-        <v>40695.97043074684</v>
+        <v>40695.97043074686</v>
       </c>
       <c r="O2" t="n">
-        <v>40695.97043074681</v>
+        <v>40695.97043074683</v>
       </c>
       <c r="P2" t="n">
-        <v>40695.97043074681</v>
+        <v>40695.97043074683</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>329987.2062029918</v>
+        <v>329987.2062029917</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80988.93635747254</v>
+        <v>80988.93635747251</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80988.93635747247</v>
+        <v>80988.9363574725</v>
       </c>
       <c r="M3" t="n">
-        <v>97387.3997761863</v>
+        <v>97387.39977618633</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32864.76537852315</v>
+        <v>32864.76537852323</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,10 +26442,10 @@
         <v>350098.1444517554</v>
       </c>
       <c r="K4" t="n">
+        <v>350098.1444517556</v>
+      </c>
+      <c r="L4" t="n">
         <v>350098.1444517555</v>
-      </c>
-      <c r="L4" t="n">
-        <v>350098.1444517556</v>
       </c>
       <c r="M4" t="n">
         <v>351744.9734616746</v>
@@ -26454,10 +26454,10 @@
         <v>351744.9734616746</v>
       </c>
       <c r="O4" t="n">
-        <v>349353.4290257164</v>
+        <v>349353.4290257165</v>
       </c>
       <c r="P4" t="n">
-        <v>349353.4290257164</v>
+        <v>349353.4290257165</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>39020.12398743368</v>
       </c>
       <c r="F5" t="n">
-        <v>39020.12398743368</v>
+        <v>39020.12398743367</v>
       </c>
       <c r="G5" t="n">
         <v>47530.94760072912</v>
@@ -26494,10 +26494,10 @@
         <v>58677.5251302165</v>
       </c>
       <c r="K5" t="n">
-        <v>58677.52513021651</v>
+        <v>58677.5251302165</v>
       </c>
       <c r="L5" t="n">
-        <v>58677.52513021651</v>
+        <v>58677.52513021649</v>
       </c>
       <c r="M5" t="n">
         <v>47800.81135056225</v>
@@ -26506,10 +26506,10 @@
         <v>47800.81135056225</v>
       </c>
       <c r="O5" t="n">
-        <v>51004.33436444183</v>
+        <v>51004.33436444186</v>
       </c>
       <c r="P5" t="n">
-        <v>51004.33436444183</v>
+        <v>51004.33436444184</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-415030.4063989806</v>
+        <v>-415034.8139761286</v>
       </c>
       <c r="C6" t="n">
-        <v>-415030.4063989806</v>
+        <v>-415034.8139761287</v>
       </c>
       <c r="D6" t="n">
-        <v>-415030.4063989806</v>
+        <v>-415034.8139761287</v>
       </c>
       <c r="E6" t="n">
-        <v>-620444.8857198339</v>
+        <v>-620733.3348366958</v>
       </c>
       <c r="F6" t="n">
-        <v>-290457.6795168421</v>
+        <v>-290746.1286337041</v>
       </c>
       <c r="G6" t="n">
         <v>-439782.896060385</v>
@@ -26546,7 +26546,7 @@
         <v>-478105.0299576174</v>
       </c>
       <c r="K6" t="n">
-        <v>-368079.6991512252</v>
+        <v>-368079.6991512253</v>
       </c>
       <c r="L6" t="n">
         <v>-449068.6355086977</v>
@@ -26555,10 +26555,10 @@
         <v>-456237.2141576764</v>
       </c>
       <c r="N6" t="n">
-        <v>-358849.81438149</v>
+        <v>-358849.8143814901</v>
       </c>
       <c r="O6" t="n">
-        <v>-392526.5583379345</v>
+        <v>-392526.5583379348</v>
       </c>
       <c r="P6" t="n">
         <v>-359661.7929594115</v>
@@ -26713,7 +26713,7 @@
         <v>142.1115946190625</v>
       </c>
       <c r="L2" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="M2" t="n">
         <v>220.6622177847246</v>
@@ -26799,7 +26799,7 @@
         <v>426.1353503440491</v>
       </c>
       <c r="F4" t="n">
-        <v>426.1353503440491</v>
+        <v>426.135350344049</v>
       </c>
       <c r="G4" t="n">
         <v>426.1353503440491</v>
@@ -26811,25 +26811,25 @@
         <v>426.135350344049</v>
       </c>
       <c r="J4" t="n">
-        <v>721.6704723748037</v>
+        <v>721.6704723748036</v>
       </c>
       <c r="K4" t="n">
-        <v>721.6704723748039</v>
+        <v>721.6704723748036</v>
       </c>
       <c r="L4" t="n">
-        <v>721.6704723748039</v>
+        <v>721.6704723748036</v>
       </c>
       <c r="M4" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404567</v>
       </c>
       <c r="N4" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404567</v>
       </c>
       <c r="O4" t="n">
-        <v>523.8899551658603</v>
+        <v>523.8899551658607</v>
       </c>
       <c r="P4" t="n">
-        <v>523.8899551658603</v>
+        <v>523.8899551658604</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.2361704468407</v>
+        <v>101.2361704468406</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.87542417222186</v>
+        <v>40.8754241722219</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>101.2361704468406</v>
       </c>
       <c r="M2" t="n">
-        <v>78.55062316566222</v>
+        <v>78.55062316566213</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.09019229858289</v>
+        <v>14.09019229858291</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.5351220307547</v>
+        <v>295.5351220307546</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.6289997097018</v>
+        <v>138.6289997097022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.72583342540372</v>
+        <v>89.72583342540401</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.2361704468407</v>
+        <v>101.2361704468406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.87542417222186</v>
+        <v>40.8754241722219</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28169,7 +28169,7 @@
         <v>122.0225520074822</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="D12" t="n">
         <v>122.0225520074822</v>
@@ -28178,64 +28178,64 @@
         <v>122.0225520074822</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>25.29111577186922</v>
+      </c>
+      <c r="V12" t="n">
         <v>122.0225520074822</v>
-      </c>
-      <c r="G12" t="n">
-        <v>39.56961479723935</v>
-      </c>
-      <c r="H12" t="n">
-        <v>107.7440529821119</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>122.0225520074822</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>122.0225520074822</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>122.0225520074822</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>122.0225520074822</v>
       </c>
     </row>
     <row r="13">
@@ -28406,13 +28406,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>122.0225520074822</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>7.560985383653701</v>
       </c>
       <c r="F15" t="n">
         <v>122.0225520074822</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>122.0225520074822</v>
       </c>
-      <c r="W15" t="n">
-        <v>122.0225520074822</v>
-      </c>
-      <c r="X15" t="n">
-        <v>84.77978180390207</v>
-      </c>
       <c r="Y15" t="n">
-        <v>122.0225520074822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.989433186484888</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,16 +28691,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>54.8230508806846</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U18" t="n">
-        <v>223.2587224543229</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>223.2587224543229</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28731,10 +28731,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.6536091708978</v>
       </c>
       <c r="H19" t="n">
         <v>159.5359974224836</v>
@@ -28770,10 +28770,10 @@
         <v>162.7806395874728</v>
       </c>
       <c r="S19" t="n">
-        <v>218.2449233395488</v>
+        <v>168.6427921351617</v>
       </c>
       <c r="T19" t="n">
-        <v>195.1511790110289</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="U19" t="n">
         <v>223.2587224543229</v>
@@ -28880,25 +28880,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>9.416335065958492</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7440529821119</v>
+        <v>51.80413664971683</v>
       </c>
       <c r="I21" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,16 +28928,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.2479873695406</v>
       </c>
       <c r="U21" t="n">
-        <v>223.2587224543229</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>223.2587224543229</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28959,10 +28959,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>149.0055665145194</v>
+        <v>120.58096683153</v>
       </c>
       <c r="E22" t="n">
         <v>146.9746241731992</v>
@@ -29019,7 +29019,7 @@
         <v>223.2587224543229</v>
       </c>
       <c r="W22" t="n">
-        <v>27.49756984013118</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="X22" t="n">
         <v>223.2587224543229</v>
@@ -29120,13 +29120,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>99.46701695110698</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.7417345196995</v>
@@ -29135,7 +29135,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,19 +29162,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U24" t="n">
-        <v>223.2587224543229</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>28.91001317518726</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29217,7 +29217,7 @@
         <v>146.661991856789</v>
       </c>
       <c r="J25" t="n">
-        <v>72.15507595161208</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>60.00061294779456</v>
       </c>
       <c r="R25" t="n">
-        <v>162.7806395874728</v>
+        <v>39.17456292489311</v>
       </c>
       <c r="S25" t="n">
-        <v>82.48438367315168</v>
+        <v>218.2449233395488</v>
       </c>
       <c r="T25" t="n">
         <v>223.2587224543229</v>
@@ -29317,7 +29317,7 @@
         <v>142.1115946190625</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190618</v>
       </c>
       <c r="R26" t="n">
         <v>142.1115946190625</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H27" t="n">
         <v>107.7440529821119</v>
@@ -29399,19 +29399,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>55.01877728750819</v>
       </c>
       <c r="U27" t="n">
-        <v>125.8677136083935</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>142.1115946190625</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>142.1115946190625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29457,13 +29457,13 @@
         <v>142.1115946190625</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>142.1115946190625</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>23.99462494887663</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29472,10 +29472,10 @@
         <v>142.1115946190625</v>
       </c>
       <c r="P28" t="n">
+        <v>83.9952378966708</v>
+      </c>
+      <c r="Q28" t="n">
         <v>142.1115946190625</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>60.00061294779456</v>
       </c>
       <c r="R28" t="n">
         <v>142.1115946190625</v>
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>48.64891718814509</v>
       </c>
       <c r="H30" t="n">
         <v>107.7440529821119</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S30" t="n">
-        <v>60.56850399015076</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="U30" t="n">
-        <v>142.1115946190625</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>142.1115946190625</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>142.1115946190625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29703,7 +29703,7 @@
         <v>142.1115946190625</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>23.99462494887631</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.99523789667124</v>
+        <v>60.00061294779457</v>
       </c>
       <c r="R31" t="n">
         <v>142.1115946190625</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="C32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="D32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="E32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="F32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="G32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="H32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="I32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="J32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="K32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190623</v>
       </c>
       <c r="L32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="M32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="N32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="O32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="P32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Q32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="R32" t="n">
-        <v>142.1115946190649</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="S32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="T32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="U32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="V32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="W32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="X32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
     </row>
     <row r="33">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55.01877728750817</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7417345196995</v>
+        <v>48.64891718814555</v>
       </c>
       <c r="H33" t="n">
         <v>107.7440529821119</v>
@@ -29876,10 +29876,10 @@
         <v>77.21879642024859</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="T33" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="C34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="D34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="E34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="F34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="G34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="H34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="I34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="J34" t="n">
-        <v>83.99523789667317</v>
+        <v>72.15507595161209</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="N34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="O34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="P34" t="n">
-        <v>142.1115946190624</v>
+        <v>11.84016194505926</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="R34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="T34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="U34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="V34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="W34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="X34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.1115946190624</v>
+        <v>142.1115946190625</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>220.6622177847246</v>
       </c>
       <c r="I35" t="n">
-        <v>184.9427477152061</v>
+        <v>216.7334384969412</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30013,7 +30013,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>31.79069078173472</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>193.8769859110857</v>
       </c>
       <c r="T35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="U35" t="n">
         <v>220.6622177847246</v>
@@ -30080,10 +30080,10 @@
         <v>135.7417345196995</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S36" t="n">
         <v>163.7333265046506</v>
@@ -30119,7 +30119,7 @@
         <v>197.2479873695406</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>55.78175929230386</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30128,10 +30128,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>113.8858422768978</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30165,7 +30165,7 @@
         <v>146.661991856789</v>
       </c>
       <c r="J37" t="n">
-        <v>72.15507595161208</v>
+        <v>72.15507595161209</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.00061294779456</v>
+        <v>60.00061294779457</v>
       </c>
       <c r="R37" t="n">
         <v>162.7806395874728</v>
       </c>
       <c r="S37" t="n">
-        <v>218.2449233395488</v>
+        <v>35.46629407334822</v>
       </c>
       <c r="T37" t="n">
         <v>220.6622177847246</v>
@@ -30204,7 +30204,7 @@
         <v>220.6622177847246</v>
       </c>
       <c r="W37" t="n">
-        <v>37.88358851852391</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="X37" t="n">
         <v>220.6622177847246</v>
@@ -30241,7 +30241,7 @@
         <v>220.6622177847246</v>
       </c>
       <c r="I38" t="n">
-        <v>184.9427477152061</v>
+        <v>189.9482066233022</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>31.79069078173478</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30271,10 +30271,10 @@
         <v>108.8046764598881</v>
       </c>
       <c r="S38" t="n">
-        <v>193.8769859110857</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="T38" t="n">
-        <v>220.6622177847247</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="U38" t="n">
         <v>220.6622177847246</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30311,16 +30311,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.19304365596798</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30359,16 +30359,16 @@
         <v>220.6622177847246</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>176.1463513744146</v>
       </c>
       <c r="W39" t="n">
-        <v>220.6622177847246</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -30402,7 +30402,7 @@
         <v>146.661991856789</v>
       </c>
       <c r="J40" t="n">
-        <v>72.15507595161208</v>
+        <v>72.15507595161209</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.00061294779456</v>
+        <v>60.00061294779457</v>
       </c>
       <c r="R40" t="n">
         <v>162.7806395874728</v>
@@ -30432,7 +30432,7 @@
         <v>218.2449233395488</v>
       </c>
       <c r="T40" t="n">
-        <v>37.88358851852388</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="U40" t="n">
         <v>220.6622177847246</v>
@@ -30447,7 +30447,7 @@
         <v>220.6622177847246</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>216.0537360922515</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>193.8769859110857</v>
       </c>
       <c r="I41" t="n">
-        <v>184.9427477152061</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30490,19 +30490,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>188.6090462338664</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>113.387382599279</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>99.18520472618235</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="R41" t="n">
         <v>193.8769859110857</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30551,13 +30551,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,22 +30584,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>25.09298691027297</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>34.45746683583471</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30639,13 +30639,13 @@
         <v>146.661991856789</v>
       </c>
       <c r="J43" t="n">
-        <v>72.15507595161208</v>
+        <v>72.15507595161209</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.3950163117437739</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30657,10 +30657,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.3950163117434897</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.00061294779456</v>
+        <v>60.00061294779457</v>
       </c>
       <c r="R43" t="n">
         <v>162.7806395874728</v>
@@ -30715,7 +30715,7 @@
         <v>193.8769859110857</v>
       </c>
       <c r="I44" t="n">
-        <v>184.9427477152061</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30736,13 +30736,13 @@
         <v>193.8769859110857</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>99.18520472618167</v>
       </c>
       <c r="Q44" t="n">
-        <v>193.1917523732577</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.8046764598881</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="S44" t="n">
         <v>193.8769859110857</v>
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30788,13 +30788,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>101.9053719110934</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30836,7 +30836,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>123.0172074453602</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30876,10 +30876,10 @@
         <v>146.661991856789</v>
       </c>
       <c r="J46" t="n">
-        <v>72.15507595161208</v>
+        <v>72.15507595161209</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.395016311743797</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,13 +30891,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.3950163117435324</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.00061294779456</v>
+        <v>60.00061294779457</v>
       </c>
       <c r="R46" t="n">
         <v>162.7806395874728</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5260763933056967</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H11" t="n">
-        <v>5.387679862941967</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I11" t="n">
-        <v>20.28156015291789</v>
+        <v>20.28156015291788</v>
       </c>
       <c r="J11" t="n">
-        <v>44.65007628632941</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K11" t="n">
-        <v>66.91889001495956</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L11" t="n">
-        <v>83.01880043658879</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M11" t="n">
-        <v>92.37441149603897</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N11" t="n">
-        <v>93.86912604851879</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O11" t="n">
-        <v>88.63795391258526</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P11" t="n">
-        <v>75.65044295285087</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R11" t="n">
-        <v>33.046146240989</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S11" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T11" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04208611146445572</v>
+        <v>0.04208611146445571</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2814756853427605</v>
+        <v>0.2814756853427604</v>
       </c>
       <c r="H12" t="n">
-        <v>2.718462540020871</v>
+        <v>2.71846254002087</v>
       </c>
       <c r="I12" t="n">
-        <v>9.691158464652061</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J12" t="n">
-        <v>26.593279552493</v>
+        <v>26.59327955249299</v>
       </c>
       <c r="K12" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L12" t="n">
-        <v>61.11602545128665</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M12" t="n">
-        <v>71.31951904496171</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N12" t="n">
-        <v>73.20713449622961</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O12" t="n">
-        <v>66.97022588942423</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P12" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.93012432550746</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R12" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S12" t="n">
-        <v>5.228287400993814</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T12" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2359797592102809</v>
+        <v>0.2359797592102808</v>
       </c>
       <c r="H13" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I13" t="n">
-        <v>7.096554940614631</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J13" t="n">
-        <v>16.68376897616686</v>
+        <v>16.68376897616685</v>
       </c>
       <c r="K13" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L13" t="n">
-        <v>35.08375438295395</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M13" t="n">
-        <v>36.99089989148066</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N13" t="n">
-        <v>36.11133897078783</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O13" t="n">
-        <v>33.35466632910408</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P13" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R13" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S13" t="n">
-        <v>4.112483621873712</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T13" t="n">
-        <v>1.008277152989382</v>
+        <v>1.008277152989381</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5260763933056967</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H14" t="n">
-        <v>5.387679862941967</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I14" t="n">
-        <v>20.28156015291789</v>
+        <v>20.28156015291788</v>
       </c>
       <c r="J14" t="n">
-        <v>44.65007628632941</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K14" t="n">
-        <v>66.91889001495956</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L14" t="n">
-        <v>83.01880043658879</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M14" t="n">
-        <v>92.37441149603897</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N14" t="n">
-        <v>93.86912604851879</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O14" t="n">
-        <v>88.63795391258526</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P14" t="n">
-        <v>75.65044295285087</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R14" t="n">
-        <v>33.046146240989</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S14" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T14" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04208611146445572</v>
+        <v>0.04208611146445571</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2814756853427605</v>
+        <v>0.2814756853427604</v>
       </c>
       <c r="H15" t="n">
-        <v>2.718462540020871</v>
+        <v>2.71846254002087</v>
       </c>
       <c r="I15" t="n">
-        <v>9.691158464652061</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J15" t="n">
-        <v>26.593279552493</v>
+        <v>26.59327955249299</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L15" t="n">
-        <v>61.11602545128665</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M15" t="n">
-        <v>71.31951904496171</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N15" t="n">
-        <v>73.20713449622961</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O15" t="n">
-        <v>66.97022588942423</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P15" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.93012432550746</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R15" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S15" t="n">
-        <v>5.228287400993814</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T15" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2359797592102809</v>
+        <v>0.2359797592102808</v>
       </c>
       <c r="H16" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I16" t="n">
-        <v>7.096554940614631</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J16" t="n">
-        <v>16.68376897616686</v>
+        <v>16.68376897616685</v>
       </c>
       <c r="K16" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L16" t="n">
-        <v>35.08375438295395</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M16" t="n">
-        <v>36.99089989148066</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N16" t="n">
-        <v>36.11133897078783</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O16" t="n">
-        <v>33.35466632910408</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P16" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R16" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S16" t="n">
-        <v>4.112483621873712</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T16" t="n">
-        <v>1.008277152989382</v>
+        <v>1.008277152989381</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5260763933056967</v>
+        <v>0.5260763933056966</v>
       </c>
       <c r="H17" t="n">
-        <v>5.387679862941967</v>
+        <v>5.387679862941965</v>
       </c>
       <c r="I17" t="n">
-        <v>20.28156015291789</v>
+        <v>20.28156015291788</v>
       </c>
       <c r="J17" t="n">
-        <v>44.65007628632941</v>
+        <v>44.6500762863294</v>
       </c>
       <c r="K17" t="n">
-        <v>66.91889001495956</v>
+        <v>66.91889001495954</v>
       </c>
       <c r="L17" t="n">
-        <v>83.01880043658879</v>
+        <v>83.01880043658878</v>
       </c>
       <c r="M17" t="n">
-        <v>92.37441149603897</v>
+        <v>92.37441149603895</v>
       </c>
       <c r="N17" t="n">
-        <v>93.86912604851879</v>
+        <v>93.86912604851877</v>
       </c>
       <c r="O17" t="n">
-        <v>88.63795391258526</v>
+        <v>88.63795391258525</v>
       </c>
       <c r="P17" t="n">
-        <v>75.65044295285087</v>
+        <v>75.65044295285085</v>
       </c>
       <c r="Q17" t="n">
         <v>56.81033211759058</v>
       </c>
       <c r="R17" t="n">
-        <v>33.046146240989</v>
+        <v>33.04614624098899</v>
       </c>
       <c r="S17" t="n">
         <v>11.98796581245357</v>
@@ -32266,7 +32266,7 @@
         <v>2.302899411695688</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04208611146445572</v>
+        <v>0.04208611146445571</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2814756853427605</v>
+        <v>0.2814756853427604</v>
       </c>
       <c r="H18" t="n">
-        <v>2.718462540020871</v>
+        <v>2.71846254002087</v>
       </c>
       <c r="I18" t="n">
-        <v>9.691158464652061</v>
+        <v>9.691158464652059</v>
       </c>
       <c r="J18" t="n">
-        <v>26.593279552493</v>
+        <v>26.59327955249299</v>
       </c>
       <c r="K18" t="n">
         <v>45.45215047045794</v>
       </c>
       <c r="L18" t="n">
-        <v>61.11602545128665</v>
+        <v>61.11602545128664</v>
       </c>
       <c r="M18" t="n">
-        <v>71.31951904496171</v>
+        <v>71.31951904496169</v>
       </c>
       <c r="N18" t="n">
-        <v>73.20713449622961</v>
+        <v>73.2071344962296</v>
       </c>
       <c r="O18" t="n">
-        <v>66.97022588942423</v>
+        <v>66.97022588942421</v>
       </c>
       <c r="P18" t="n">
         <v>53.74951047567151</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.93012432550746</v>
+        <v>35.93012432550745</v>
       </c>
       <c r="R18" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S18" t="n">
-        <v>5.228287400993814</v>
+        <v>5.228287400993813</v>
       </c>
       <c r="T18" t="n">
         <v>1.134544538728056</v>
@@ -32382,31 +32382,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2359797592102809</v>
+        <v>0.2359797592102808</v>
       </c>
       <c r="H19" t="n">
         <v>2.098074586433226</v>
       </c>
       <c r="I19" t="n">
-        <v>7.096554940614631</v>
+        <v>7.096554940614629</v>
       </c>
       <c r="J19" t="n">
-        <v>16.68376897616686</v>
+        <v>16.68376897616685</v>
       </c>
       <c r="K19" t="n">
         <v>27.41655747915808</v>
       </c>
       <c r="L19" t="n">
-        <v>35.08375438295395</v>
+        <v>35.08375438295394</v>
       </c>
       <c r="M19" t="n">
-        <v>36.99089989148066</v>
+        <v>36.99089989148065</v>
       </c>
       <c r="N19" t="n">
-        <v>36.11133897078783</v>
+        <v>36.11133897078782</v>
       </c>
       <c r="O19" t="n">
-        <v>33.35466632910408</v>
+        <v>33.35466632910407</v>
       </c>
       <c r="P19" t="n">
         <v>28.54067924121432</v>
@@ -32418,10 +32418,10 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S19" t="n">
-        <v>4.112483621873712</v>
+        <v>4.112483621873711</v>
       </c>
       <c r="T19" t="n">
-        <v>1.008277152989382</v>
+        <v>1.008277152989381</v>
       </c>
       <c r="U19" t="n">
         <v>0.0128716232296517</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5260763933056967</v>
+        <v>0.5260763933056966</v>
       </c>
       <c r="H23" t="n">
-        <v>5.387679862941967</v>
+        <v>5.387679862941965</v>
       </c>
       <c r="I23" t="n">
-        <v>20.28156015291789</v>
+        <v>20.28156015291788</v>
       </c>
       <c r="J23" t="n">
-        <v>44.65007628632941</v>
+        <v>44.6500762863294</v>
       </c>
       <c r="K23" t="n">
-        <v>66.91889001495956</v>
+        <v>66.91889001495954</v>
       </c>
       <c r="L23" t="n">
-        <v>83.01880043658879</v>
+        <v>83.01880043658878</v>
       </c>
       <c r="M23" t="n">
-        <v>92.37441149603897</v>
+        <v>92.37441149603895</v>
       </c>
       <c r="N23" t="n">
-        <v>93.86912604851879</v>
+        <v>93.86912604851877</v>
       </c>
       <c r="O23" t="n">
-        <v>88.63795391258526</v>
+        <v>88.63795391258525</v>
       </c>
       <c r="P23" t="n">
-        <v>75.65044295285087</v>
+        <v>75.65044295285085</v>
       </c>
       <c r="Q23" t="n">
         <v>56.81033211759058</v>
       </c>
       <c r="R23" t="n">
-        <v>33.046146240989</v>
+        <v>33.04614624098899</v>
       </c>
       <c r="S23" t="n">
         <v>11.98796581245357</v>
@@ -32740,7 +32740,7 @@
         <v>2.302899411695688</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04208611146445572</v>
+        <v>0.04208611146445571</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2814756853427605</v>
+        <v>0.2814756853427604</v>
       </c>
       <c r="H24" t="n">
-        <v>2.718462540020871</v>
+        <v>2.71846254002087</v>
       </c>
       <c r="I24" t="n">
-        <v>9.691158464652061</v>
+        <v>9.691158464652059</v>
       </c>
       <c r="J24" t="n">
-        <v>26.593279552493</v>
+        <v>26.59327955249299</v>
       </c>
       <c r="K24" t="n">
         <v>45.45215047045794</v>
       </c>
       <c r="L24" t="n">
-        <v>61.11602545128665</v>
+        <v>61.11602545128664</v>
       </c>
       <c r="M24" t="n">
-        <v>71.31951904496171</v>
+        <v>71.31951904496169</v>
       </c>
       <c r="N24" t="n">
-        <v>73.20713449622961</v>
+        <v>73.2071344962296</v>
       </c>
       <c r="O24" t="n">
-        <v>66.97022588942423</v>
+        <v>66.97022588942421</v>
       </c>
       <c r="P24" t="n">
         <v>53.74951047567151</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.93012432550746</v>
+        <v>35.93012432550745</v>
       </c>
       <c r="R24" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S24" t="n">
-        <v>5.228287400993814</v>
+        <v>5.228287400993813</v>
       </c>
       <c r="T24" t="n">
         <v>1.134544538728056</v>
@@ -32856,31 +32856,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2359797592102809</v>
+        <v>0.2359797592102808</v>
       </c>
       <c r="H25" t="n">
         <v>2.098074586433226</v>
       </c>
       <c r="I25" t="n">
-        <v>7.096554940614631</v>
+        <v>7.096554940614629</v>
       </c>
       <c r="J25" t="n">
-        <v>16.68376897616686</v>
+        <v>16.68376897616685</v>
       </c>
       <c r="K25" t="n">
         <v>27.41655747915808</v>
       </c>
       <c r="L25" t="n">
-        <v>35.08375438295395</v>
+        <v>35.08375438295394</v>
       </c>
       <c r="M25" t="n">
-        <v>36.99089989148066</v>
+        <v>36.99089989148065</v>
       </c>
       <c r="N25" t="n">
-        <v>36.11133897078783</v>
+        <v>36.11133897078782</v>
       </c>
       <c r="O25" t="n">
-        <v>33.35466632910408</v>
+        <v>33.35466632910407</v>
       </c>
       <c r="P25" t="n">
         <v>28.54067924121432</v>
@@ -32892,10 +32892,10 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S25" t="n">
-        <v>4.112483621873712</v>
+        <v>4.112483621873711</v>
       </c>
       <c r="T25" t="n">
-        <v>1.008277152989382</v>
+        <v>1.008277152989381</v>
       </c>
       <c r="U25" t="n">
         <v>0.0128716232296517</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5260763933056967</v>
+        <v>0.5260763933056966</v>
       </c>
       <c r="H26" t="n">
-        <v>5.387679862941967</v>
+        <v>5.387679862941965</v>
       </c>
       <c r="I26" t="n">
-        <v>20.28156015291789</v>
+        <v>20.28156015291788</v>
       </c>
       <c r="J26" t="n">
-        <v>44.65007628632941</v>
+        <v>44.6500762863294</v>
       </c>
       <c r="K26" t="n">
-        <v>66.91889001495956</v>
+        <v>66.91889001495954</v>
       </c>
       <c r="L26" t="n">
-        <v>83.01880043658879</v>
+        <v>83.01880043658878</v>
       </c>
       <c r="M26" t="n">
-        <v>92.37441149603897</v>
+        <v>92.37441149603895</v>
       </c>
       <c r="N26" t="n">
-        <v>93.86912604851879</v>
+        <v>93.86912604851877</v>
       </c>
       <c r="O26" t="n">
-        <v>88.63795391258526</v>
+        <v>88.63795391258525</v>
       </c>
       <c r="P26" t="n">
-        <v>75.65044295285087</v>
+        <v>75.65044295285085</v>
       </c>
       <c r="Q26" t="n">
         <v>56.81033211759058</v>
       </c>
       <c r="R26" t="n">
-        <v>33.046146240989</v>
+        <v>33.04614624098899</v>
       </c>
       <c r="S26" t="n">
         <v>11.98796581245357</v>
@@ -32977,7 +32977,7 @@
         <v>2.302899411695688</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04208611146445572</v>
+        <v>0.04208611146445571</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2814756853427605</v>
+        <v>0.2814756853427604</v>
       </c>
       <c r="H27" t="n">
-        <v>2.718462540020871</v>
+        <v>2.71846254002087</v>
       </c>
       <c r="I27" t="n">
-        <v>9.691158464652061</v>
+        <v>9.691158464652059</v>
       </c>
       <c r="J27" t="n">
-        <v>26.593279552493</v>
+        <v>26.59327955249299</v>
       </c>
       <c r="K27" t="n">
         <v>45.45215047045794</v>
       </c>
       <c r="L27" t="n">
-        <v>61.11602545128665</v>
+        <v>61.11602545128664</v>
       </c>
       <c r="M27" t="n">
-        <v>71.31951904496171</v>
+        <v>71.31951904496169</v>
       </c>
       <c r="N27" t="n">
-        <v>73.20713449622961</v>
+        <v>73.2071344962296</v>
       </c>
       <c r="O27" t="n">
-        <v>66.97022588942423</v>
+        <v>66.97022588942421</v>
       </c>
       <c r="P27" t="n">
         <v>53.74951047567151</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.93012432550746</v>
+        <v>35.93012432550745</v>
       </c>
       <c r="R27" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S27" t="n">
-        <v>5.228287400993814</v>
+        <v>5.228287400993813</v>
       </c>
       <c r="T27" t="n">
         <v>1.134544538728056</v>
@@ -33093,31 +33093,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2359797592102809</v>
+        <v>0.2359797592102808</v>
       </c>
       <c r="H28" t="n">
         <v>2.098074586433226</v>
       </c>
       <c r="I28" t="n">
-        <v>7.096554940614631</v>
+        <v>7.096554940614629</v>
       </c>
       <c r="J28" t="n">
-        <v>16.68376897616686</v>
+        <v>16.68376897616685</v>
       </c>
       <c r="K28" t="n">
         <v>27.41655747915808</v>
       </c>
       <c r="L28" t="n">
-        <v>35.08375438295395</v>
+        <v>35.08375438295394</v>
       </c>
       <c r="M28" t="n">
-        <v>36.99089989148066</v>
+        <v>36.99089989148065</v>
       </c>
       <c r="N28" t="n">
-        <v>36.11133897078783</v>
+        <v>36.11133897078782</v>
       </c>
       <c r="O28" t="n">
-        <v>33.35466632910408</v>
+        <v>33.35466632910407</v>
       </c>
       <c r="P28" t="n">
         <v>28.54067924121432</v>
@@ -33129,10 +33129,10 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S28" t="n">
-        <v>4.112483621873712</v>
+        <v>4.112483621873711</v>
       </c>
       <c r="T28" t="n">
-        <v>1.008277152989382</v>
+        <v>1.008277152989381</v>
       </c>
       <c r="U28" t="n">
         <v>0.0128716232296517</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5260763933056967</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H29" t="n">
-        <v>5.387679862941967</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I29" t="n">
-        <v>20.28156015291789</v>
+        <v>20.28156015291788</v>
       </c>
       <c r="J29" t="n">
-        <v>44.65007628632941</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K29" t="n">
-        <v>66.91889001495956</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L29" t="n">
-        <v>83.01880043658879</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M29" t="n">
-        <v>92.37441149603897</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N29" t="n">
-        <v>93.86912604851879</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O29" t="n">
-        <v>88.63795391258526</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P29" t="n">
-        <v>75.65044295285087</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R29" t="n">
-        <v>33.046146240989</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S29" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T29" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04208611146445572</v>
+        <v>0.04208611146445571</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2814756853427605</v>
+        <v>0.2814756853427604</v>
       </c>
       <c r="H30" t="n">
-        <v>2.718462540020871</v>
+        <v>2.71846254002087</v>
       </c>
       <c r="I30" t="n">
-        <v>9.691158464652061</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J30" t="n">
-        <v>26.593279552493</v>
+        <v>26.59327955249299</v>
       </c>
       <c r="K30" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L30" t="n">
-        <v>61.11602545128665</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M30" t="n">
-        <v>71.31951904496171</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N30" t="n">
-        <v>73.20713449622961</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O30" t="n">
-        <v>66.97022588942423</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P30" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.93012432550746</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R30" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S30" t="n">
-        <v>5.228287400993814</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T30" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2359797592102809</v>
+        <v>0.2359797592102808</v>
       </c>
       <c r="H31" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I31" t="n">
-        <v>7.096554940614631</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J31" t="n">
-        <v>16.68376897616686</v>
+        <v>16.68376897616685</v>
       </c>
       <c r="K31" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L31" t="n">
-        <v>35.08375438295395</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M31" t="n">
-        <v>36.99089989148066</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N31" t="n">
-        <v>36.11133897078783</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O31" t="n">
-        <v>33.35466632910408</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P31" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R31" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S31" t="n">
-        <v>4.112483621873712</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T31" t="n">
-        <v>1.008277152989382</v>
+        <v>1.008277152989381</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5260763933056967</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H32" t="n">
-        <v>5.387679862941967</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I32" t="n">
-        <v>20.28156015291789</v>
+        <v>20.28156015291788</v>
       </c>
       <c r="J32" t="n">
-        <v>44.65007628632941</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K32" t="n">
-        <v>66.91889001495956</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L32" t="n">
-        <v>83.01880043658879</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M32" t="n">
-        <v>92.37441149603897</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N32" t="n">
-        <v>93.86912604851879</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O32" t="n">
-        <v>88.63795391258526</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P32" t="n">
-        <v>75.65044295285087</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R32" t="n">
-        <v>33.046146240989</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S32" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T32" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04208611146445572</v>
+        <v>0.04208611146445571</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2814756853427605</v>
+        <v>0.2814756853427604</v>
       </c>
       <c r="H33" t="n">
-        <v>2.718462540020871</v>
+        <v>2.71846254002087</v>
       </c>
       <c r="I33" t="n">
-        <v>9.691158464652061</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J33" t="n">
-        <v>26.593279552493</v>
+        <v>26.59327955249299</v>
       </c>
       <c r="K33" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L33" t="n">
-        <v>61.11602545128665</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M33" t="n">
-        <v>71.31951904496171</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N33" t="n">
-        <v>73.20713449622961</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O33" t="n">
-        <v>66.97022588942423</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P33" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.93012432550746</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R33" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S33" t="n">
-        <v>5.228287400993814</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T33" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2359797592102809</v>
+        <v>0.2359797592102808</v>
       </c>
       <c r="H34" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I34" t="n">
-        <v>7.096554940614631</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J34" t="n">
-        <v>16.68376897616686</v>
+        <v>16.68376897616685</v>
       </c>
       <c r="K34" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L34" t="n">
-        <v>35.08375438295395</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M34" t="n">
-        <v>36.99089989148066</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N34" t="n">
-        <v>36.11133897078783</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O34" t="n">
-        <v>33.35466632910408</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P34" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R34" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S34" t="n">
-        <v>4.112483621873712</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T34" t="n">
-        <v>1.008277152989382</v>
+        <v>1.008277152989381</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5260763933056967</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H35" t="n">
-        <v>5.387679862941967</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I35" t="n">
-        <v>20.28156015291789</v>
+        <v>20.28156015291788</v>
       </c>
       <c r="J35" t="n">
-        <v>44.65007628632941</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K35" t="n">
-        <v>66.91889001495956</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L35" t="n">
-        <v>83.01880043658879</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M35" t="n">
-        <v>92.37441149603897</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N35" t="n">
-        <v>93.86912604851879</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O35" t="n">
-        <v>88.63795391258526</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P35" t="n">
-        <v>75.65044295285087</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R35" t="n">
-        <v>33.046146240989</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S35" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T35" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04208611146445572</v>
+        <v>0.04208611146445571</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2814756853427605</v>
+        <v>0.2814756853427604</v>
       </c>
       <c r="H36" t="n">
-        <v>2.718462540020871</v>
+        <v>2.71846254002087</v>
       </c>
       <c r="I36" t="n">
-        <v>9.691158464652061</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J36" t="n">
-        <v>26.593279552493</v>
+        <v>26.59327955249299</v>
       </c>
       <c r="K36" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L36" t="n">
-        <v>61.11602545128665</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M36" t="n">
-        <v>71.31951904496171</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N36" t="n">
-        <v>73.20713449622961</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O36" t="n">
-        <v>66.97022588942423</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P36" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.93012432550746</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R36" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S36" t="n">
-        <v>5.228287400993814</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T36" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2359797592102809</v>
+        <v>0.2359797592102808</v>
       </c>
       <c r="H37" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I37" t="n">
-        <v>7.096554940614631</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J37" t="n">
-        <v>16.68376897616686</v>
+        <v>16.68376897616685</v>
       </c>
       <c r="K37" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L37" t="n">
-        <v>35.08375438295395</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M37" t="n">
-        <v>36.99089989148066</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N37" t="n">
-        <v>36.11133897078783</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O37" t="n">
-        <v>33.35466632910408</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P37" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R37" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S37" t="n">
-        <v>4.112483621873712</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T37" t="n">
-        <v>1.008277152989382</v>
+        <v>1.008277152989381</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5260763933056967</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H38" t="n">
-        <v>5.387679862941967</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I38" t="n">
-        <v>20.28156015291789</v>
+        <v>20.28156015291788</v>
       </c>
       <c r="J38" t="n">
-        <v>44.65007628632941</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K38" t="n">
-        <v>66.91889001495956</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L38" t="n">
-        <v>83.01880043658879</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M38" t="n">
-        <v>92.37441149603897</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N38" t="n">
-        <v>93.86912604851879</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O38" t="n">
-        <v>88.63795391258526</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P38" t="n">
-        <v>75.65044295285087</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R38" t="n">
-        <v>33.046146240989</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S38" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T38" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04208611146445572</v>
+        <v>0.04208611146445571</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2814756853427605</v>
+        <v>0.2814756853427604</v>
       </c>
       <c r="H39" t="n">
-        <v>2.718462540020871</v>
+        <v>2.71846254002087</v>
       </c>
       <c r="I39" t="n">
-        <v>9.691158464652061</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J39" t="n">
-        <v>26.593279552493</v>
+        <v>26.59327955249299</v>
       </c>
       <c r="K39" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L39" t="n">
-        <v>61.11602545128665</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M39" t="n">
-        <v>71.31951904496171</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N39" t="n">
-        <v>73.20713449622961</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O39" t="n">
-        <v>66.97022588942423</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P39" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.93012432550746</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R39" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S39" t="n">
-        <v>5.228287400993814</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T39" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2359797592102809</v>
+        <v>0.2359797592102808</v>
       </c>
       <c r="H40" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I40" t="n">
-        <v>7.096554940614631</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J40" t="n">
-        <v>16.68376897616686</v>
+        <v>16.68376897616685</v>
       </c>
       <c r="K40" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L40" t="n">
-        <v>35.08375438295395</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M40" t="n">
-        <v>36.99089989148066</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N40" t="n">
-        <v>36.11133897078783</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O40" t="n">
-        <v>33.35466632910408</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P40" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R40" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S40" t="n">
-        <v>4.112483621873712</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T40" t="n">
-        <v>1.008277152989382</v>
+        <v>1.008277152989381</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5260763933056967</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H41" t="n">
-        <v>5.387679862941967</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I41" t="n">
-        <v>20.28156015291789</v>
+        <v>20.28156015291788</v>
       </c>
       <c r="J41" t="n">
-        <v>44.65007628632941</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K41" t="n">
-        <v>66.91889001495956</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L41" t="n">
-        <v>83.01880043658879</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M41" t="n">
-        <v>92.37441149603897</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N41" t="n">
-        <v>93.86912604851879</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O41" t="n">
-        <v>88.63795391258526</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P41" t="n">
-        <v>75.65044295285087</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R41" t="n">
-        <v>33.046146240989</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S41" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T41" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04208611146445572</v>
+        <v>0.04208611146445571</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2814756853427605</v>
+        <v>0.2814756853427604</v>
       </c>
       <c r="H42" t="n">
-        <v>2.718462540020871</v>
+        <v>2.71846254002087</v>
       </c>
       <c r="I42" t="n">
-        <v>9.691158464652061</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J42" t="n">
-        <v>26.593279552493</v>
+        <v>26.59327955249299</v>
       </c>
       <c r="K42" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L42" t="n">
-        <v>61.11602545128665</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M42" t="n">
-        <v>71.31951904496171</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N42" t="n">
-        <v>73.20713449622961</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O42" t="n">
-        <v>66.97022588942423</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P42" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.93012432550746</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R42" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S42" t="n">
-        <v>5.228287400993814</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T42" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2359797592102809</v>
+        <v>0.2359797592102808</v>
       </c>
       <c r="H43" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I43" t="n">
-        <v>7.096554940614631</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J43" t="n">
-        <v>16.68376897616686</v>
+        <v>16.68376897616685</v>
       </c>
       <c r="K43" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L43" t="n">
-        <v>35.08375438295395</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M43" t="n">
-        <v>36.99089989148066</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N43" t="n">
-        <v>36.11133897078783</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O43" t="n">
-        <v>33.35466632910408</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P43" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R43" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S43" t="n">
-        <v>4.112483621873712</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T43" t="n">
-        <v>1.008277152989382</v>
+        <v>1.008277152989381</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5260763933056967</v>
+        <v>0.5260763933056964</v>
       </c>
       <c r="H44" t="n">
-        <v>5.387679862941967</v>
+        <v>5.387679862941964</v>
       </c>
       <c r="I44" t="n">
-        <v>20.28156015291789</v>
+        <v>20.28156015291788</v>
       </c>
       <c r="J44" t="n">
-        <v>44.65007628632941</v>
+        <v>44.65007628632939</v>
       </c>
       <c r="K44" t="n">
-        <v>66.91889001495956</v>
+        <v>66.91889001495953</v>
       </c>
       <c r="L44" t="n">
-        <v>83.01880043658879</v>
+        <v>83.01880043658875</v>
       </c>
       <c r="M44" t="n">
-        <v>92.37441149603897</v>
+        <v>92.37441149603893</v>
       </c>
       <c r="N44" t="n">
-        <v>93.86912604851879</v>
+        <v>93.86912604851875</v>
       </c>
       <c r="O44" t="n">
-        <v>88.63795391258526</v>
+        <v>88.63795391258522</v>
       </c>
       <c r="P44" t="n">
-        <v>75.65044295285087</v>
+        <v>75.65044295285082</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.81033211759058</v>
+        <v>56.81033211759056</v>
       </c>
       <c r="R44" t="n">
-        <v>33.046146240989</v>
+        <v>33.04614624098898</v>
       </c>
       <c r="S44" t="n">
         <v>11.98796581245357</v>
       </c>
       <c r="T44" t="n">
-        <v>2.302899411695688</v>
+        <v>2.302899411695687</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04208611146445572</v>
+        <v>0.04208611146445571</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2814756853427605</v>
+        <v>0.2814756853427604</v>
       </c>
       <c r="H45" t="n">
-        <v>2.718462540020871</v>
+        <v>2.71846254002087</v>
       </c>
       <c r="I45" t="n">
-        <v>9.691158464652061</v>
+        <v>9.691158464652057</v>
       </c>
       <c r="J45" t="n">
-        <v>26.593279552493</v>
+        <v>26.59327955249299</v>
       </c>
       <c r="K45" t="n">
-        <v>45.45215047045794</v>
+        <v>45.45215047045793</v>
       </c>
       <c r="L45" t="n">
-        <v>61.11602545128665</v>
+        <v>61.11602545128662</v>
       </c>
       <c r="M45" t="n">
-        <v>71.31951904496171</v>
+        <v>71.31951904496167</v>
       </c>
       <c r="N45" t="n">
-        <v>73.20713449622961</v>
+        <v>73.20713449622959</v>
       </c>
       <c r="O45" t="n">
-        <v>66.97022588942423</v>
+        <v>66.9702258894242</v>
       </c>
       <c r="P45" t="n">
-        <v>53.74951047567151</v>
+        <v>53.74951047567149</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.93012432550746</v>
+        <v>35.93012432550744</v>
       </c>
       <c r="R45" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S45" t="n">
-        <v>5.228287400993814</v>
+        <v>5.228287400993812</v>
       </c>
       <c r="T45" t="n">
-        <v>1.134544538728056</v>
+        <v>1.134544538728055</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01851813719360267</v>
+        <v>0.01851813719360266</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2359797592102809</v>
+        <v>0.2359797592102808</v>
       </c>
       <c r="H46" t="n">
-        <v>2.098074586433226</v>
+        <v>2.098074586433225</v>
       </c>
       <c r="I46" t="n">
-        <v>7.096554940614631</v>
+        <v>7.096554940614627</v>
       </c>
       <c r="J46" t="n">
-        <v>16.68376897616686</v>
+        <v>16.68376897616685</v>
       </c>
       <c r="K46" t="n">
-        <v>27.41655747915808</v>
+        <v>27.41655747915807</v>
       </c>
       <c r="L46" t="n">
-        <v>35.08375438295395</v>
+        <v>35.08375438295393</v>
       </c>
       <c r="M46" t="n">
-        <v>36.99089989148066</v>
+        <v>36.99089989148064</v>
       </c>
       <c r="N46" t="n">
-        <v>36.11133897078783</v>
+        <v>36.11133897078781</v>
       </c>
       <c r="O46" t="n">
-        <v>33.35466632910408</v>
+        <v>33.35466632910406</v>
       </c>
       <c r="P46" t="n">
-        <v>28.54067924121432</v>
+        <v>28.54067924121431</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.76008692805361</v>
+        <v>19.7600869280536</v>
       </c>
       <c r="R46" t="n">
         <v>10.61050808230953</v>
       </c>
       <c r="S46" t="n">
-        <v>4.112483621873712</v>
+        <v>4.11248362187371</v>
       </c>
       <c r="T46" t="n">
-        <v>1.008277152989382</v>
+        <v>1.008277152989381</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0128716232296517</v>
+        <v>0.01287162322965169</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K11" t="n">
         <v>189.4425143201149</v>
@@ -35422,13 +35422,13 @@
         <v>325.0321904303061</v>
       </c>
       <c r="O11" t="n">
-        <v>260.3243862896959</v>
+        <v>260.3243862896958</v>
       </c>
       <c r="P11" t="n">
         <v>184.868928589805</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.8698747763032</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.06127030651815</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K12" t="n">
         <v>186.1005939635397</v>
@@ -35495,16 +35495,16 @@
         <v>311.6994642815068</v>
       </c>
       <c r="M12" t="n">
-        <v>417.0721022709938</v>
+        <v>19.51741649464839</v>
       </c>
       <c r="N12" t="n">
-        <v>28.58066456770387</v>
+        <v>426.1353503440491</v>
       </c>
       <c r="O12" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P12" t="n">
-        <v>254.3257426322342</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q12" t="n">
         <v>117.9282738369195</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K14" t="n">
         <v>189.4425143201149</v>
@@ -35653,19 +35653,19 @@
         <v>287.5142089733196</v>
       </c>
       <c r="M14" t="n">
-        <v>335.2809089319939</v>
+        <v>335.2809089319938</v>
       </c>
       <c r="N14" t="n">
         <v>325.0321904303061</v>
       </c>
       <c r="O14" t="n">
-        <v>260.3243862896959</v>
+        <v>260.3243862896958</v>
       </c>
       <c r="P14" t="n">
         <v>184.868928589805</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.8698747763032</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.06127030651815</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>311.6994642815068</v>
@@ -35735,16 +35735,16 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N15" t="n">
-        <v>366.1363641715935</v>
+        <v>426.135350344049</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>337.5556996038896</v>
       </c>
       <c r="P15" t="n">
-        <v>254.3257426322342</v>
+        <v>194.8611949628659</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.9282738369195</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.8674760558701</v>
+        <v>49.86747605587011</v>
       </c>
       <c r="K16" t="n">
         <v>134.6646997688069</v>
@@ -35820,10 +35820,10 @@
         <v>189.9454263665573</v>
       </c>
       <c r="P16" t="n">
-        <v>156.6852531473803</v>
+        <v>156.6852531473804</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.02193905968761</v>
+        <v>62.02193905968763</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176713</v>
       </c>
       <c r="K17" t="n">
         <v>189.4425143201149</v>
@@ -35890,19 +35890,19 @@
         <v>287.5142089733196</v>
       </c>
       <c r="M17" t="n">
-        <v>335.2809089319939</v>
+        <v>335.2809089319938</v>
       </c>
       <c r="N17" t="n">
         <v>325.0321904303061</v>
       </c>
       <c r="O17" t="n">
-        <v>260.3243862896959</v>
+        <v>260.3243862896958</v>
       </c>
       <c r="P17" t="n">
         <v>184.868928589805</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.8698747763032</v>
+        <v>60.86987477630319</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>34.06127030651815</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>186.1005939635397</v>
@@ -35969,10 +35969,10 @@
         <v>311.6994642815068</v>
       </c>
       <c r="M18" t="n">
-        <v>19.51741649464851</v>
+        <v>417.0721022709938</v>
       </c>
       <c r="N18" t="n">
-        <v>426.1353503440491</v>
+        <v>180.5702087111416</v>
       </c>
       <c r="O18" t="n">
         <v>337.5556996038896</v>
@@ -35981,7 +35981,7 @@
         <v>254.3257426322342</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.9282738369195</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>72.54488461196323</v>
       </c>
       <c r="M19" t="n">
-        <v>87.18830788838923</v>
+        <v>87.18830788838922</v>
       </c>
       <c r="N19" t="n">
         <v>90.30835863542572</v>
@@ -36206,16 +36206,16 @@
         <v>311.6994642815068</v>
       </c>
       <c r="M21" t="n">
-        <v>417.0721022709938</v>
+        <v>19.51741649464851</v>
       </c>
       <c r="N21" t="n">
-        <v>282.906407199938</v>
+        <v>426.1353503440491</v>
       </c>
       <c r="O21" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>254.3257426322342</v>
       </c>
       <c r="Q21" t="n">
         <v>117.9282738369195</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176668</v>
       </c>
       <c r="K23" t="n">
         <v>189.4425143201149</v>
@@ -36364,19 +36364,19 @@
         <v>287.5142089733196</v>
       </c>
       <c r="M23" t="n">
-        <v>335.2809089319939</v>
+        <v>335.2809089319938</v>
       </c>
       <c r="N23" t="n">
         <v>325.0321904303061</v>
       </c>
       <c r="O23" t="n">
-        <v>260.3243862896959</v>
+        <v>260.3243862896958</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8689285898045</v>
+        <v>184.868928589805</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.8698747763032</v>
+        <v>60.86987477630319</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>311.6994642815068</v>
       </c>
       <c r="M24" t="n">
-        <v>417.0721022709938</v>
+        <v>171.5069606380859</v>
       </c>
       <c r="N24" t="n">
         <v>426.135350344049</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3880267662963</v>
+        <v>337.5556996038896</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>254.3257426322342</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.9282738369195</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>72.54488461196323</v>
       </c>
       <c r="M25" t="n">
-        <v>87.18830788838923</v>
+        <v>87.18830788838922</v>
       </c>
       <c r="N25" t="n">
         <v>90.30835863542572</v>
@@ -36598,7 +36598,7 @@
         <v>331.5541089391774</v>
       </c>
       <c r="L26" t="n">
-        <v>429.6258035923821</v>
+        <v>429.6258035923822</v>
       </c>
       <c r="M26" t="n">
         <v>477.3925035510564</v>
@@ -36613,10 +36613,10 @@
         <v>326.9805232088676</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.9814693953657</v>
+        <v>202.981469395365</v>
       </c>
       <c r="R26" t="n">
-        <v>33.30691815917444</v>
+        <v>33.30691815917446</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.95651866745044</v>
+        <v>69.95651866745047</v>
       </c>
       <c r="K28" t="n">
-        <v>154.7537423803873</v>
+        <v>12.64214776132473</v>
       </c>
       <c r="L28" t="n">
         <v>72.54488461196323</v>
       </c>
       <c r="M28" t="n">
-        <v>111.1829328372659</v>
+        <v>229.2999025074517</v>
       </c>
       <c r="N28" t="n">
         <v>90.30835863542572</v>
@@ -36768,10 +36768,10 @@
         <v>210.0344689781377</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7742957589607</v>
+        <v>118.657939036569</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.11098167126798</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>202.9814693953657</v>
       </c>
       <c r="R29" t="n">
-        <v>33.30691815917444</v>
+        <v>33.30691815917445</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.06127030651815</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K30" t="n">
         <v>186.1005939635397</v>
@@ -36920,13 +36920,13 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N30" t="n">
-        <v>443.6650345322753</v>
+        <v>443.6650345322752</v>
       </c>
       <c r="O30" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P30" t="n">
-        <v>254.3257426322342</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q30" t="n">
         <v>117.9282738369195</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.95651866745044</v>
+        <v>69.95651866745045</v>
       </c>
       <c r="K31" t="n">
         <v>154.7537423803873</v>
@@ -36999,16 +36999,16 @@
         <v>229.2999025074517</v>
       </c>
       <c r="N31" t="n">
-        <v>90.30835863542572</v>
+        <v>114.302983584302</v>
       </c>
       <c r="O31" t="n">
-        <v>67.92287435907514</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P31" t="n">
-        <v>34.66270113989816</v>
+        <v>34.66270113989815</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.99462494887668</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.1023937708294</v>
+        <v>186.1023937708295</v>
       </c>
       <c r="K32" t="n">
-        <v>331.5541089391773</v>
+        <v>331.5541089391772</v>
       </c>
       <c r="L32" t="n">
         <v>429.6258035923821</v>
@@ -37078,7 +37078,7 @@
         <v>477.3925035510563</v>
       </c>
       <c r="N32" t="n">
-        <v>467.1437850493685</v>
+        <v>467.1437850493686</v>
       </c>
       <c r="O32" t="n">
         <v>402.4359809087583</v>
@@ -37087,10 +37087,10 @@
         <v>326.9805232088675</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.9814693953656</v>
+        <v>202.9814693953657</v>
       </c>
       <c r="R32" t="n">
-        <v>33.30691815917679</v>
+        <v>33.30691815917442</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.06127030651815</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K33" t="n">
         <v>186.1005939635397</v>
@@ -37157,13 +37157,13 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N33" t="n">
-        <v>443.6650345322753</v>
+        <v>443.6650345322752</v>
       </c>
       <c r="O33" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P33" t="n">
-        <v>254.3257426322342</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q33" t="n">
         <v>117.9282738369195</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.8401619450611</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>12.64214776132473</v>
+        <v>12.64214776132472</v>
       </c>
       <c r="L34" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M34" t="n">
-        <v>87.18830788838923</v>
+        <v>229.2999025074517</v>
       </c>
       <c r="N34" t="n">
-        <v>232.4199532544881</v>
+        <v>232.4199532544882</v>
       </c>
       <c r="O34" t="n">
         <v>210.0344689781376</v>
       </c>
       <c r="P34" t="n">
-        <v>176.7742957589606</v>
+        <v>46.50286308495741</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.11098167126787</v>
+        <v>82.11098167126795</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.7906907817351</v>
       </c>
       <c r="J35" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K35" t="n">
         <v>189.4425143201149</v>
       </c>
       <c r="L35" t="n">
-        <v>319.3048997550544</v>
+        <v>287.5142089733196</v>
       </c>
       <c r="M35" t="n">
-        <v>335.2809089319939</v>
+        <v>335.2809089319938</v>
       </c>
       <c r="N35" t="n">
         <v>325.0321904303061</v>
       </c>
       <c r="O35" t="n">
-        <v>260.3243862896959</v>
+        <v>260.3243862896958</v>
       </c>
       <c r="P35" t="n">
         <v>184.868928589805</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.8698747763032</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K36" t="n">
         <v>186.1005939635397</v>
       </c>
       <c r="L36" t="n">
-        <v>309.5236678008965</v>
+        <v>311.6994642815068</v>
       </c>
       <c r="M36" t="n">
         <v>417.0721022709938</v>
       </c>
       <c r="N36" t="n">
-        <v>434.1641217404566</v>
+        <v>432.6253718185924</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>337.5556996038896</v>
       </c>
       <c r="P36" t="n">
-        <v>254.3257426322342</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.9282738369195</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.64214776132473</v>
+        <v>12.64214776132472</v>
       </c>
       <c r="L37" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M37" t="n">
-        <v>87.18830788838923</v>
+        <v>87.1883078883892</v>
       </c>
       <c r="N37" t="n">
-        <v>90.30835863542572</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O37" t="n">
-        <v>67.92287435907514</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P37" t="n">
-        <v>34.66270113989816</v>
+        <v>34.66270113989815</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5.005458908096099</v>
       </c>
       <c r="J38" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K38" t="n">
         <v>189.4425143201149</v>
@@ -37549,25 +37549,25 @@
         <v>287.5142089733196</v>
       </c>
       <c r="M38" t="n">
-        <v>335.2809089319939</v>
+        <v>335.2809089319938</v>
       </c>
       <c r="N38" t="n">
         <v>325.0321904303061</v>
       </c>
       <c r="O38" t="n">
-        <v>260.3243862896959</v>
+        <v>260.3243862896958</v>
       </c>
       <c r="P38" t="n">
-        <v>216.6596193715398</v>
+        <v>184.868928589805</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.8698747763032</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>26.78523187363898</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>186.1005939635397</v>
+        <v>100.6948405112743</v>
       </c>
       <c r="L39" t="n">
         <v>311.6994642815068</v>
@@ -37631,13 +37631,13 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N39" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404567</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>337.5556996038896</v>
       </c>
       <c r="P39" t="n">
-        <v>252.1499461516239</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>117.9282738369195</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.64214776132473</v>
+        <v>12.64214776132472</v>
       </c>
       <c r="L40" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M40" t="n">
-        <v>87.18830788838923</v>
+        <v>87.1883078883892</v>
       </c>
       <c r="N40" t="n">
-        <v>90.30835863542572</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O40" t="n">
-        <v>67.92287435907514</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P40" t="n">
-        <v>34.66270113989816</v>
+        <v>34.66270113989815</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.934238195879519</v>
       </c>
       <c r="J41" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K41" t="n">
         <v>189.4425143201149</v>
@@ -37786,22 +37786,22 @@
         <v>287.5142089733196</v>
       </c>
       <c r="M41" t="n">
-        <v>523.8899551658603</v>
+        <v>335.2809089319938</v>
       </c>
       <c r="N41" t="n">
         <v>325.0321904303061</v>
       </c>
       <c r="O41" t="n">
-        <v>373.7117688889749</v>
+        <v>260.3243862896958</v>
       </c>
       <c r="P41" t="n">
-        <v>184.868928589805</v>
+        <v>284.0541333159873</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.8698747763032</v>
+        <v>254.7468606873888</v>
       </c>
       <c r="R41" t="n">
-        <v>85.07230945119761</v>
+        <v>85.07230945119755</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.06127030651815</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K42" t="n">
         <v>186.1005939635397</v>
       </c>
       <c r="L42" t="n">
-        <v>283.6838326012788</v>
+        <v>311.6994642815068</v>
       </c>
       <c r="M42" t="n">
         <v>417.0721022709938</v>
       </c>
       <c r="N42" t="n">
-        <v>443.6650345322753</v>
+        <v>443.6650345322752</v>
       </c>
       <c r="O42" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P42" t="n">
-        <v>254.3257426322342</v>
+        <v>226.3101109520076</v>
       </c>
       <c r="Q42" t="n">
         <v>117.9282738369195</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.64214776132473</v>
+        <v>12.64214776132472</v>
       </c>
       <c r="L43" t="n">
-        <v>72.54488461196323</v>
+        <v>72.93990092370699</v>
       </c>
       <c r="M43" t="n">
-        <v>87.18830788838923</v>
+        <v>87.1883078883892</v>
       </c>
       <c r="N43" t="n">
-        <v>90.30835863542572</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O43" t="n">
-        <v>67.92287435907514</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P43" t="n">
-        <v>35.05771745164165</v>
+        <v>34.66270113989815</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.934238195879519</v>
       </c>
       <c r="J44" t="n">
-        <v>43.99079915176699</v>
+        <v>43.99079915176697</v>
       </c>
       <c r="K44" t="n">
         <v>189.4425143201149</v>
@@ -38023,22 +38023,22 @@
         <v>287.5142089733196</v>
       </c>
       <c r="M44" t="n">
-        <v>335.2809089319939</v>
+        <v>335.2809089319938</v>
       </c>
       <c r="N44" t="n">
         <v>325.0321904303061</v>
       </c>
       <c r="O44" t="n">
-        <v>454.2013722007816</v>
+        <v>454.2013722007815</v>
       </c>
       <c r="P44" t="n">
-        <v>184.868928589805</v>
+        <v>284.0541333159866</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.0616271495608</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.07230945119755</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.06127030651815</v>
+        <v>34.06127030651814</v>
       </c>
       <c r="K45" t="n">
         <v>186.1005939635397</v>
@@ -38105,16 +38105,16 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N45" t="n">
-        <v>415.6494028520473</v>
+        <v>443.6650345322752</v>
       </c>
       <c r="O45" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P45" t="n">
-        <v>254.3257426322342</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.9282738369195</v>
+        <v>89.91264215669203</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.64214776132473</v>
+        <v>13.03716407306852</v>
       </c>
       <c r="L46" t="n">
-        <v>72.54488461196323</v>
+        <v>72.54488461196321</v>
       </c>
       <c r="M46" t="n">
-        <v>87.18830788838923</v>
+        <v>87.1883078883892</v>
       </c>
       <c r="N46" t="n">
-        <v>90.30835863542572</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O46" t="n">
-        <v>68.31789067081867</v>
+        <v>67.92287435907512</v>
       </c>
       <c r="P46" t="n">
-        <v>34.66270113989816</v>
+        <v>34.66270113989815</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
